--- a/data/hotels_by_city/Houston/Houston_shard_486.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_486.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="294">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g30163-d73789-Reviews-Motel_6_Alvin_TX-Alvin_Texas.html</t>
   </si>
   <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Galveston-Hotels-Motel-6-Alvin.h17395626.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,760 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/12/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d73789-r401840126-Motel_6_Alvin_TX-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>30163</t>
+  </si>
+  <si>
+    <t>73789</t>
+  </si>
+  <si>
+    <t>401840126</t>
+  </si>
+  <si>
+    <t>08/05/2016</t>
+  </si>
+  <si>
+    <t>Relaxing stay</t>
+  </si>
+  <si>
+    <t>We spent the weekend.  The motel looked to have been recently painted outside.  The staff were friendly and helpful, the room was clean and comfortable, and the pool area provided a nice place to relax and visit.</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d73789-r393777066-Motel_6_Alvin_TX-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>393777066</t>
+  </si>
+  <si>
+    <t>07/17/2016</t>
+  </si>
+  <si>
+    <t>Quiality stay</t>
+  </si>
+  <si>
+    <t>Alvin Best Western was a good location for us to stay on our trip. We  were greeted  immediately by staff and our reservations were already made. The room was  very nicely equipped with a comfortable bed, cold room, and flat screen TV.  Also went down and cooled off in the pool.  Would stay there again if in the area.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d73789-r391536884-Motel_6_Alvin_TX-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>391536884</t>
+  </si>
+  <si>
+    <t>07/11/2016</t>
+  </si>
+  <si>
+    <t>Dirty, Unfriendly Staff!!!</t>
+  </si>
+  <si>
+    <t>I booked this through Expedia and prepaid so we had no choice but to stay. I read reviews beforehand and it seemed ok and reasonably priced for a best Western. When we arrived the hotel looked old and very outdated, nothing like reviews. The guy that checked us in was not very friendly. We were in a room on second floor, no elevator, had to take our luggage up several steps, that were sticking and gross from the outside elements. This hotel is one where doors are all on the outside, very creepy. The room was smelly, took a long time to cool down, and was still not very cool. The bed was hard and we did not sleep good. This hotel needs a huge upgrade.  I would NOT recommend this hotel. Yuk!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>I booked this through Expedia and prepaid so we had no choice but to stay. I read reviews beforehand and it seemed ok and reasonably priced for a best Western. When we arrived the hotel looked old and very outdated, nothing like reviews. The guy that checked us in was not very friendly. We were in a room on second floor, no elevator, had to take our luggage up several steps, that were sticking and gross from the outside elements. This hotel is one where doors are all on the outside, very creepy. The room was smelly, took a long time to cool down, and was still not very cool. The bed was hard and we did not sleep good. This hotel needs a huge upgrade.  I would NOT recommend this hotel. Yuk!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d73789-r377785684-Motel_6_Alvin_TX-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>377785684</t>
+  </si>
+  <si>
+    <t>05/29/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No complaints </t>
+  </si>
+  <si>
+    <t>Nice staff, clean room, and good price. No mold in  bathroom, even though it was a smoking room, it didn't smell like smoke. Pool was nice. I am being forced to drag this review out to 200 characters. I wanted to keep it short and simple.</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d73789-r377226623-Motel_6_Alvin_TX-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>377226623</t>
+  </si>
+  <si>
+    <t>05/27/2016</t>
+  </si>
+  <si>
+    <t>Alvin Hideaway</t>
+  </si>
+  <si>
+    <t>Once again I was able to get a room at the Alvin BW and was satisfied to be on the ground level. The rooms are inviting and have the childhood memory scent of the neat old motor lodges that we stayed in when I was growing up. A large flat screen TV and a really comfortable bed is the mainstay of this larger size room with Micro wave, fridge, plenty of drawer space with internet connection available room. Settle in and relax or go down to the pool to cool off in the heat of the day, it is inviting. Still the location is next to undeveloped property and feels like you are tucked away in a corner of town without a lot of neighbors, on one side anyway. I like this place with good bath linens and for the first time I was in a room that the tub could use some fresh caulking. Other than that minor detail all was acceptable well cared for room at a reasonable rate!MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Once again I was able to get a room at the Alvin BW and was satisfied to be on the ground level. The rooms are inviting and have the childhood memory scent of the neat old motor lodges that we stayed in when I was growing up. A large flat screen TV and a really comfortable bed is the mainstay of this larger size room with Micro wave, fridge, plenty of drawer space with internet connection available room. Settle in and relax or go down to the pool to cool off in the heat of the day, it is inviting. Still the location is next to undeveloped property and feels like you are tucked away in a corner of town without a lot of neighbors, on one side anyway. I like this place with good bath linens and for the first time I was in a room that the tub could use some fresh caulking. Other than that minor detail all was acceptable well cared for room at a reasonable rate!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d73789-r361884302-Motel_6_Alvin_TX-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>361884302</t>
+  </si>
+  <si>
+    <t>04/05/2016</t>
+  </si>
+  <si>
+    <t>Rude unprofessional</t>
+  </si>
+  <si>
+    <t>I had stayed in this location twice before when on charity work with no real problem, Seems a new owner nowBooked a months or so ahead for Fri Sat nite stay. On checking in noticed the promo for 25. gift card and inquired. Owner working desk was very rude.  While he was ringing the card I asked what rate showed up. Again he was rude saying I should know and that HE was insulted.Screw that, I am a customer and have a right to know what is being charged He hands me the keys then tries to grab them back saying do I want to stay?  This at 10 at night with all rooms booked for final 4 NCAA everywhere  He followed me outside and I called Best Western. They were NOT helpfulI had to pay considerably more then for a room at super 8 which is no better than a motel 6  Pass on this placeMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>I had stayed in this location twice before when on charity work with no real problem, Seems a new owner nowBooked a months or so ahead for Fri Sat nite stay. On checking in noticed the promo for 25. gift card and inquired. Owner working desk was very rude.  While he was ringing the card I asked what rate showed up. Again he was rude saying I should know and that HE was insulted.Screw that, I am a customer and have a right to know what is being charged He hands me the keys then tries to grab them back saying do I want to stay?  This at 10 at night with all rooms booked for final 4 NCAA everywhere  He followed me outside and I called Best Western. They were NOT helpfulI had to pay considerably more then for a room at super 8 which is no better than a motel 6  Pass on this placeMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d73789-r341106645-Motel_6_Alvin_TX-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>341106645</t>
+  </si>
+  <si>
+    <t>01/18/2016</t>
+  </si>
+  <si>
+    <t>Hideaway Alvin BW</t>
+  </si>
+  <si>
+    <t>This BW location in Alvin, Texas is situated next to natural woods on two sides which make it seem more "detached" from the fast paced world just past the property lines. These seem to block a good amount of sound that is Predominant from the highway to the front of this hotel. Nice touch you could say. Otherwise, a well kept property with spacious rooms, comfortable beds, nice cushy bath linens, good TV of large size, clean rooms and bath, nice breakfast choices, mostly pre packaged items other than waffles, but also some fruit. Folks are all friendly and seek to make your stay enjoyable as possible, a nice size pool with lounging area is tucked in between the office building and rooms building for a privacy effect that helps your relaxation time. Reasonable room prices is also an attractive part of this location. Located on Hwy. 35 by-pass just South of Hwy. 6, you pass it up if you are not looking for it just past the Trees! Go, Stay, it is a good launching point for Houston/Galveston without hanging in the same area overnight, not to mention points south like Lake Jackson, Angleton, Brazoria, etc.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>This BW location in Alvin, Texas is situated next to natural woods on two sides which make it seem more "detached" from the fast paced world just past the property lines. These seem to block a good amount of sound that is Predominant from the highway to the front of this hotel. Nice touch you could say. Otherwise, a well kept property with spacious rooms, comfortable beds, nice cushy bath linens, good TV of large size, clean rooms and bath, nice breakfast choices, mostly pre packaged items other than waffles, but also some fruit. Folks are all friendly and seek to make your stay enjoyable as possible, a nice size pool with lounging area is tucked in between the office building and rooms building for a privacy effect that helps your relaxation time. Reasonable room prices is also an attractive part of this location. Located on Hwy. 35 by-pass just South of Hwy. 6, you pass it up if you are not looking for it just past the Trees! Go, Stay, it is a good launching point for Houston/Galveston without hanging in the same area overnight, not to mention points south like Lake Jackson, Angleton, Brazoria, etc.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d73789-r336284151-Motel_6_Alvin_TX-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>336284151</t>
+  </si>
+  <si>
+    <t>12/31/2015</t>
+  </si>
+  <si>
+    <t>Not the same</t>
+  </si>
+  <si>
+    <t>We have stayed at Best Western Alvin for the last 3 years at the holidays.  It was great then but we had a problem this last time.  We left our room late due to late night the night before and as a result our room was never cleaned.  We asked at least for new towels and coffee in room.  When we returned that night they had indeed given us fresh towels and coffee.  When they put the new towels in the bathroom, they had to step over used, wet towels to put new ones up.  Did they pick up old, wet towels from floor?  No they did not!  It was gross.   Who would step over a pile of wet towels?  Incredible!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>We have stayed at Best Western Alvin for the last 3 years at the holidays.  It was great then but we had a problem this last time.  We left our room late due to late night the night before and as a result our room was never cleaned.  We asked at least for new towels and coffee in room.  When we returned that night they had indeed given us fresh towels and coffee.  When they put the new towels in the bathroom, they had to step over used, wet towels to put new ones up.  Did they pick up old, wet towels from floor?  No they did not!  It was gross.   Who would step over a pile of wet towels?  Incredible!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d73789-r334413236-Motel_6_Alvin_TX-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>334413236</t>
+  </si>
+  <si>
+    <t>12/19/2015</t>
+  </si>
+  <si>
+    <t>OK. Nothing special.</t>
+  </si>
+  <si>
+    <t>For the money it was a good deal The breakfast had almost nothing that was gluten free. The room was clean. The service was good. Very plain room and drab parking lot. We just needed a place to stay to catch a plane in the morning. The room smelled musty but we aired it out.</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d73789-r330983062-Motel_6_Alvin_TX-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>330983062</t>
+  </si>
+  <si>
+    <t>12/06/2015</t>
+  </si>
+  <si>
+    <t>The manager the worst....</t>
+  </si>
+  <si>
+    <t>I made a reservation 5 days ahead of time; oce I got there at 10 pm. Nobody call me before letting me know that someone in Best Western Cancelled my reservation :(One I request an explanation the manager yield on me :(Bad super Bad customer SERVICEIf I call at 6 pm asking if my reservation still good; and he said YESWhy nobody call me letting me know that they give my reservation to another person; That Doesn't make any sense.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d73789-r319470048-Motel_6_Alvin_TX-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>319470048</t>
+  </si>
+  <si>
+    <t>10/16/2015</t>
+  </si>
+  <si>
+    <t>Most disrespectful person ever</t>
+  </si>
+  <si>
+    <t>The gentlemanwho checked me and my pregnant girlfriend in chooseto run up the side of the car and start yelling at us then he choose to start coursing us out I tryed to apologize for not recognizeing him and he kelt cussing at us then threw us out of the hotel stateing we had to many people visit  and he was calling the police he just kept cussing I recommend if u want to be respected go elsewhere</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d73789-r318187245-Motel_6_Alvin_TX-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>318187245</t>
+  </si>
+  <si>
+    <t>10/12/2015</t>
+  </si>
+  <si>
+    <t>Best Western Alvin</t>
+  </si>
+  <si>
+    <t>The rooms were clean. The air conditioner was loud and barely worked. The hair dryer didn't work at all. I found mold on my breakfast sandwich. I will stay in a differnt place on my next stay. The only good thing was room was clean.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d73789-r291839312-Motel_6_Alvin_TX-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>291839312</t>
+  </si>
+  <si>
+    <t>07/23/2015</t>
+  </si>
+  <si>
+    <t>MUCH Better than First Impression!</t>
+  </si>
+  <si>
+    <t>We recently stayed in the Best Western in Alvin. While the exterior had us gulping, once we opened our room door, we were VERY surprised! (In the best of ways). The interior of our room was fresh, impeccably clean, very up-to-date, and comfortably cool (despite the nearly 100 degree weather). We slept very comfortably. However, as other reviewers have noted, breakfast is greatly lacking, both in options and sitting area. So long as you're ok with this, I'd highly recommend this hotel!</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d73789-r289588483-Motel_6_Alvin_TX-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>289588483</t>
+  </si>
+  <si>
+    <t>07/16/2015</t>
+  </si>
+  <si>
+    <t>Definitely not the Best of Best Westerns</t>
+  </si>
+  <si>
+    <t>First Tip: If you are getting a different hotel in Alvin at the same price, probably get that. 
+Second Tip: If you are buying a stay just going by the reputation of a Best Western, think again. Remember that there is a huge difference between a Best Western and a Best Western Plus hotel, which we learned by experience.
+We had booked this hotel, on the road at the last moment, so we weren't really spoiled for choices and just went by the reputation of the hotel chain. That was a mistake. It is definitely not great value at the price range. There were only smoking rooms left when we booked, but upon our late arrival the manager offered us a non-smoking room that had opened up. We were pleased to hear that. However, our happiness was shortlived as the room smelled like from the instant we entered. Having never stayed in a smoking room before, we could not tell if it had been hastily converted to a non-smoking room the day before. Anyway, we were too tired to complain and decided to crash in. The bed was fine, but we had to sleep without the hard pillows. We never turned on the LED Tv which had a weird bleeding glow coming from the bottom of the plane. It was disturbing enough for us to try and cover it with a piece of cloth in order to go to sleep....First Tip: If you are getting a different hotel in Alvin at the same price, probably get that. Second Tip: If you are buying a stay just going by the reputation of a Best Western, think again. Remember that there is a huge difference between a Best Western and a Best Western Plus hotel, which we learned by experience.We had booked this hotel, on the road at the last moment, so we weren't really spoiled for choices and just went by the reputation of the hotel chain. That was a mistake. It is definitely not great value at the price range. There were only smoking rooms left when we booked, but upon our late arrival the manager offered us a non-smoking room that had opened up. We were pleased to hear that. However, our happiness was shortlived as the room smelled like from the instant we entered. Having never stayed in a smoking room before, we could not tell if it had been hastily converted to a non-smoking room the day before. Anyway, we were too tired to complain and decided to crash in. The bed was fine, but we had to sleep without the hard pillows. We never turned on the LED Tv which had a weird bleeding glow coming from the bottom of the plane. It was disturbing enough for us to try and cover it with a piece of cloth in order to go to sleep. The AC was one of the noisiest that we have encountered in a hotel, and not really as efficient in cooling as in noise production. Both the AC and the microwave seemed to be a few generations old. But everything was very clean. This is an absolute basic necessity that is sometimes missing in low budget hotels. But we were glad that this hotel got it "spot on". One more thing is the open design of the hotel which gives travellers access to their rooms directly from the parking lot. I personally prefer the sense of security that comes with a closed design where the rooms are accessible only through the lobby and kind of expected that from a Best Western Hotel (The adjacent Super 8 has that design). The breakfast is about average. Mostly frozen and packaged food (buns and cinnamon rolls), cereals, coffee, juices, yogurt and a waffle maker. They also have some frozen sandwiches and burritos that you can warm up in the microwave to eat. Overall it was a marginally unpleasant short night stay, neither enough to be recommendable nor enough to to go on a raging rant.Having stayed in a few different Best Western (Plus or not) Hotels around the country and having had a pleasant stay, I would definitely not remember this one.MoreShow less</t>
+  </si>
+  <si>
+    <t>First Tip: If you are getting a different hotel in Alvin at the same price, probably get that. 
+Second Tip: If you are buying a stay just going by the reputation of a Best Western, think again. Remember that there is a huge difference between a Best Western and a Best Western Plus hotel, which we learned by experience.
+We had booked this hotel, on the road at the last moment, so we weren't really spoiled for choices and just went by the reputation of the hotel chain. That was a mistake. It is definitely not great value at the price range. There were only smoking rooms left when we booked, but upon our late arrival the manager offered us a non-smoking room that had opened up. We were pleased to hear that. However, our happiness was shortlived as the room smelled like from the instant we entered. Having never stayed in a smoking room before, we could not tell if it had been hastily converted to a non-smoking room the day before. Anyway, we were too tired to complain and decided to crash in. The bed was fine, but we had to sleep without the hard pillows. We never turned on the LED Tv which had a weird bleeding glow coming from the bottom of the plane. It was disturbing enough for us to try and cover it with a piece of cloth in order to go to sleep....First Tip: If you are getting a different hotel in Alvin at the same price, probably get that. Second Tip: If you are buying a stay just going by the reputation of a Best Western, think again. Remember that there is a huge difference between a Best Western and a Best Western Plus hotel, which we learned by experience.We had booked this hotel, on the road at the last moment, so we weren't really spoiled for choices and just went by the reputation of the hotel chain. That was a mistake. It is definitely not great value at the price range. There were only smoking rooms left when we booked, but upon our late arrival the manager offered us a non-smoking room that had opened up. We were pleased to hear that. However, our happiness was shortlived as the room smelled like from the instant we entered. Having never stayed in a smoking room before, we could not tell if it had been hastily converted to a non-smoking room the day before. Anyway, we were too tired to complain and decided to crash in. The bed was fine, but we had to sleep without the hard pillows. We never turned on the LED Tv which had a weird bleeding glow coming from the bottom of the plane. It was disturbing enough for us to try and cover it with a piece of cloth in order to go to sleep. The AC was one of the noisiest that we have encountered in a hotel, and not really as efficient in cooling as in noise production. Both the AC and the microwave seemed to be a few generations old. But everything was very clean. This is an absolute basic necessity that is sometimes missing in low budget hotels. But we were glad that this hotel got it "spot on". One more thing is the open design of the hotel which gives travellers access to their rooms directly from the parking lot. I personally prefer the sense of security that comes with a closed design where the rooms are accessible only through the lobby and kind of expected that from a Best Western Hotel (The adjacent Super 8 has that design). The breakfast is about average. Mostly frozen and packaged food (buns and cinnamon rolls), cereals, coffee, juices, yogurt and a waffle maker. They also have some frozen sandwiches and burritos that you can warm up in the microwave to eat. Overall it was a marginally unpleasant short night stay, neither enough to be recommendable nor enough to to go on a raging rant.Having stayed in a few different Best Western (Plus or not) Hotels around the country and having had a pleasant stay, I would definitely not remember this one.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d73789-r287374707-Motel_6_Alvin_TX-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>287374707</t>
+  </si>
+  <si>
+    <t>07/09/2015</t>
+  </si>
+  <si>
+    <t>Not sure</t>
+  </si>
+  <si>
+    <t>The hotel staff was friendly. The room was ok. Not sure if i would stay again. A reservation was made for a handicap room. They didn't have a record of it. After finally getting a room on ground level, it was ok. The ceiling in bathroom was COVERED with black mold.  The TV made a huge popping sound and then went out. The breakfast was the best part, EXCEPT, the dining area was way to small. The pool was nice, but no working hot tub. The door way into the room had like a double lip which we tripped over numerous times. My elderly parents almost fell!</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d73789-r277135459-Motel_6_Alvin_TX-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>277135459</t>
+  </si>
+  <si>
+    <t>06/01/2015</t>
+  </si>
+  <si>
+    <t>Alvin's Cozy spot</t>
+  </si>
+  <si>
+    <t>As always, friendly staff, reasonable rate, clean rooms, mine did have a strange scent this time, but otherwise just fine. Good television size and selection of channels, linens were good, thick towels ( I like them that way), good amount of amenities in the room, breakfast is somewhat different as main course products are Soft tacos and sausage egg biscuit to be heated by microwave, cereals, toasted bread, coffee, waffles round out the fair with yogurt available as well.  Property surrounded by natural landscape on two sides, another hotel on third and main highway to the front. sounds tend to soften in room area. I suppose that is why it feels cozy. Older refurbished property, done well and tasteful check'm out for a comfy nights stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>As always, friendly staff, reasonable rate, clean rooms, mine did have a strange scent this time, but otherwise just fine. Good television size and selection of channels, linens were good, thick towels ( I like them that way), good amount of amenities in the room, breakfast is somewhat different as main course products are Soft tacos and sausage egg biscuit to be heated by microwave, cereals, toasted bread, coffee, waffles round out the fair with yogurt available as well.  Property surrounded by natural landscape on two sides, another hotel on third and main highway to the front. sounds tend to soften in room area. I suppose that is why it feels cozy. Older refurbished property, done well and tasteful check'm out for a comfy nights stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d73789-r271706536-Motel_6_Alvin_TX-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>271706536</t>
+  </si>
+  <si>
+    <t>05/12/2015</t>
+  </si>
+  <si>
+    <t>BW</t>
+  </si>
+  <si>
+    <t>for your price it is good and for single it is ok to stay. hotel was average for overall stay. place is not so good. it is not worth to stay with family. I will recommend for people to short stay to get sleep as stop over</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d73789-r270947588-Motel_6_Alvin_TX-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>270947588</t>
+  </si>
+  <si>
+    <t>05/09/2015</t>
+  </si>
+  <si>
+    <t>Don't be fooled</t>
+  </si>
+  <si>
+    <t>We were placed in smoking room without our consent and the only way that the guy at the front desk "accommodated " was by handing us a can of air freshener. The room was gross, not to mention, hot, humid and full of mosquitoes. We were very disappointed and will never stay there or recommend to anyone.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d73789-r255699015-Motel_6_Alvin_TX-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>255699015</t>
+  </si>
+  <si>
+    <t>02/21/2015</t>
+  </si>
+  <si>
+    <t>Pre-cruise Stay</t>
+  </si>
+  <si>
+    <t>Drove down for a two night stay before a cruise from the port of Galveston. We found the motel to be very nice and the people couldn't have been friendlier. Several times they went out of their way to take care of us. The breakfast was above average, the rates reasonable, and the proximity to the cruise port not bad about 35 miles or forty five minutes. All in all a Best Western that definitely lived up to their reputation. We'll be back!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>bestwesternalvintx, Webmaster at Motel 6 Alvin, TX, responded to this reviewResponded March 12, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 12, 2015</t>
+  </si>
+  <si>
+    <t>Drove down for a two night stay before a cruise from the port of Galveston. We found the motel to be very nice and the people couldn't have been friendlier. Several times they went out of their way to take care of us. The breakfast was above average, the rates reasonable, and the proximity to the cruise port not bad about 35 miles or forty five minutes. All in all a Best Western that definitely lived up to their reputation. We'll be back!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d73789-r248577457-Motel_6_Alvin_TX-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>248577457</t>
+  </si>
+  <si>
+    <t>01/09/2015</t>
+  </si>
+  <si>
+    <t>Hotel experience</t>
+  </si>
+  <si>
+    <t>Our stay at the Best Western was most enjoyable. This is an excellent hotel to stay .The service was great and the staff was very friendly and helpful. The grounds and pool was beautiful and the rooms are clean and very comfortable. Also the room was beautifully furnished.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>bestwesternalvintx, Webmaster at Motel 6 Alvin, TX, responded to this reviewResponded January 19, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 19, 2015</t>
+  </si>
+  <si>
+    <t>Our stay at the Best Western was most enjoyable. This is an excellent hotel to stay .The service was great and the staff was very friendly and helpful. The grounds and pool was beautiful and the rooms are clean and very comfortable. Also the room was beautifully furnished.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d73789-r247684274-Motel_6_Alvin_TX-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>247684274</t>
+  </si>
+  <si>
+    <t>01/05/2015</t>
+  </si>
+  <si>
+    <t>Another Great Stay</t>
+  </si>
+  <si>
+    <t>We stayed here last Christmas and again Christmas of 2014.  Another Great Stay!  The rooms are large and clean; the staff very friendly - they even knew our names when we checked in.  My sister and her husband stayed here also and they were also impressed.  Rates are great and with our every expanding family, we'll sure to stay here again!Thanks!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>We stayed here last Christmas and again Christmas of 2014.  Another Great Stay!  The rooms are large and clean; the staff very friendly - they even knew our names when we checked in.  My sister and her husband stayed here also and they were also impressed.  Rates are great and with our every expanding family, we'll sure to stay here again!Thanks!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d73789-r239253920-Motel_6_Alvin_TX-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>239253920</t>
+  </si>
+  <si>
+    <t>11/10/2014</t>
+  </si>
+  <si>
+    <t>Best Western quality varies wildly</t>
+  </si>
+  <si>
+    <t>The front desk staff was vapid and lethargic.  He had no knowledge of the Best Western rewards program and offered none of the associated perks.  I was told that they would not honor the "best available" room upgrade even though  their  best room was going to go vacant.  I cannot think of anything else to add to the review and do no not understand why I must have 200 characters or more.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>bestwesternalvintx, Webmaster at Motel 6 Alvin, TX, responded to this reviewResponded November 20, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 20, 2014</t>
+  </si>
+  <si>
+    <t>The front desk staff was vapid and lethargic.  He had no knowledge of the Best Western rewards program and offered none of the associated perks.  I was told that they would not honor the "best available" room upgrade even though  their  best room was going to go vacant.  I cannot think of anything else to add to the review and do no not understand why I must have 200 characters or more.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d73789-r232169530-Motel_6_Alvin_TX-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>232169530</t>
+  </si>
+  <si>
+    <t>10/01/2014</t>
+  </si>
+  <si>
+    <t>Alvin trip</t>
+  </si>
+  <si>
+    <t>The Best Western in Alvin is easy to get to, comfortable, clean and the staff are very friendly and helpful. Great price for the accommodations. I would recommend this hotel to anyone visiting in the Alvin area. We found a nice bar on Gordon street that had an excellent dinner and good music. It was only a mile away.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>bestwesternalvintx, Webmaster at Motel 6 Alvin, TX, responded to this reviewResponded October 21, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 21, 2014</t>
+  </si>
+  <si>
+    <t>The Best Western in Alvin is easy to get to, comfortable, clean and the staff are very friendly and helpful. Great price for the accommodations. I would recommend this hotel to anyone visiting in the Alvin area. We found a nice bar on Gordon street that had an excellent dinner and good music. It was only a mile away.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d73789-r229123086-Motel_6_Alvin_TX-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>229123086</t>
+  </si>
+  <si>
+    <t>09/15/2014</t>
+  </si>
+  <si>
+    <t>Room smelled of mildew.</t>
+  </si>
+  <si>
+    <t>Room smelled strongly of mildew.  The outside of hotel was a bit rundown.  We arrived about 5 pm on a Saturday, no one in the lobby.  Had to wait about 5 minutes for someone to show up.  Room looked clean, but was VERY hot and humid, the a/c was off.  The room smelled strongly of mildew.  The mosquitos were terrible, and there were even mosquitos in the room.  This hotel is rated 2 1/2 stars on Priceline.  It is NOT comparable with other 2 1/2 stars (Holiday Inn Express and La Quinta) in Alvin.  I do NOT recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>bestwesternalvintx, Webmaster at Motel 6 Alvin, TX, responded to this reviewResponded September 22, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 22, 2014</t>
+  </si>
+  <si>
+    <t>Room smelled strongly of mildew.  The outside of hotel was a bit rundown.  We arrived about 5 pm on a Saturday, no one in the lobby.  Had to wait about 5 minutes for someone to show up.  Room looked clean, but was VERY hot and humid, the a/c was off.  The room smelled strongly of mildew.  The mosquitos were terrible, and there were even mosquitos in the room.  This hotel is rated 2 1/2 stars on Priceline.  It is NOT comparable with other 2 1/2 stars (Holiday Inn Express and La Quinta) in Alvin.  I do NOT recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d73789-r216381116-Motel_6_Alvin_TX-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>216381116</t>
+  </si>
+  <si>
+    <t>07/20/2014</t>
+  </si>
+  <si>
+    <t>Don't settle for this place like my family did.</t>
+  </si>
+  <si>
+    <t>We were travelling on our way to Galveston and decided to stay in Alvin before heading to the beach the next morning.  Unfortunately, there was a softball tournament and everything was booked, except for the ol' best Western (should have been my first clue). Long story short it was very pricey for the conditions, the room was STANKY, and the sink didn't drain properly. The actual worked fine and the beds slept ok, so all in all it did meet the necessities. I would recommend the holiday Inn express.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>bestwesternalvintx, Webmaster at Motel 6 Alvin, TX, responded to this reviewResponded July 30, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 30, 2014</t>
+  </si>
+  <si>
+    <t>We were travelling on our way to Galveston and decided to stay in Alvin before heading to the beach the next morning.  Unfortunately, there was a softball tournament and everything was booked, except for the ol' best Western (should have been my first clue). Long story short it was very pricey for the conditions, the room was STANKY, and the sink didn't drain properly. The actual worked fine and the beds slept ok, so all in all it did meet the necessities. I would recommend the holiday Inn express.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d73789-r212418160-Motel_6_Alvin_TX-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>212418160</t>
+  </si>
+  <si>
+    <t>06/27/2014</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>very good over all ,no problems close to attractions,restaurants,close to convention, easy excess to everything,stores, gas,,swimmig pool clean,personnel very pleasant,attentivevery good over all ,no problems close to attractions,restaurants,close to convention, easy excess to everything,stores, gas,,swimmig pool clean,personnel very pleasant,attentivevery good over all ,no problems close to attractions,restaurants,close to convention, easy excess to everything,stores, gas,,swimmig pool clean,personnel very pleasant,attentiveMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>bestwesternalvintx, Webmaster at Motel 6 Alvin, TX, responded to this reviewResponded July 10, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 10, 2014</t>
+  </si>
+  <si>
+    <t>very good over all ,no problems close to attractions,restaurants,close to convention, easy excess to everything,stores, gas,,swimmig pool clean,personnel very pleasant,attentivevery good over all ,no problems close to attractions,restaurants,close to convention, easy excess to everything,stores, gas,,swimmig pool clean,personnel very pleasant,attentivevery good over all ,no problems close to attractions,restaurants,close to convention, easy excess to everything,stores, gas,,swimmig pool clean,personnel very pleasant,attentiveMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d73789-r204755087-Motel_6_Alvin_TX-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>204755087</t>
+  </si>
+  <si>
+    <t>05/08/2014</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>We only stayed one night but the room was very clean, quiet and comfortable. The front desk staff was friendly and professional. There was a problem in the room above us which resulted in water leaking form the light in our bathroom. The staff cleaned up the water and everything was fine. The price was reasonable and I would sty there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>bestwesternalvintx, Webmaster at Motel 6 Alvin, TX, responded to this reviewResponded May 16, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 16, 2014</t>
+  </si>
+  <si>
+    <t>We only stayed one night but the room was very clean, quiet and comfortable. The front desk staff was friendly and professional. There was a problem in the room above us which resulted in water leaking form the light in our bathroom. The staff cleaned up the water and everything was fine. The price was reasonable and I would sty there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d73789-r192315389-Motel_6_Alvin_TX-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>192315389</t>
+  </si>
+  <si>
+    <t>01/27/2014</t>
+  </si>
+  <si>
+    <t>Good value and comfortable</t>
+  </si>
+  <si>
+    <t>This is an older motel that is well kept and updated facilities,  The staff was very friendly and helpful.  Breakfast was sparse but adequate and for the price it was fine.   We would stay here again mainly because the room was clean comfortable and updated.  We were initially concerned when booking because of the price, but we found this to be a very fine motel and worthwhile.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>bestwesternalvintx, Webmaster at Motel 6 Alvin, TX, responded to this reviewResponded April 9, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 9, 2014</t>
+  </si>
+  <si>
+    <t>This is an older motel that is well kept and updated facilities,  The staff was very friendly and helpful.  Breakfast was sparse but adequate and for the price it was fine.   We would stay here again mainly because the room was clean comfortable and updated.  We were initially concerned when booking because of the price, but we found this to be a very fine motel and worthwhile.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d73789-r190170977-Motel_6_Alvin_TX-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>190170977</t>
+  </si>
+  <si>
+    <t>01/08/2014</t>
+  </si>
+  <si>
+    <t>Great deal/Great room</t>
+  </si>
+  <si>
+    <t>The hotel was excellent, the staff was wonderful.  We stayed there Christmas Eve 2013, they were very friendly; family members in other rooms, too.  We all agree.  The room is spotless and well appointed.  Our favorite part was the "fresh remote" bag.  Hotel (TV) remotes can be gross - this was an excellent touch.  We'll be back; highly recommended!Patti PMoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>The hotel was excellent, the staff was wonderful.  We stayed there Christmas Eve 2013, they were very friendly; family members in other rooms, too.  We all agree.  The room is spotless and well appointed.  Our favorite part was the "fresh remote" bag.  Hotel (TV) remotes can be gross - this was an excellent touch.  We'll be back; highly recommended!Patti PMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d73789-r188185436-Motel_6_Alvin_TX-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>188185436</t>
+  </si>
+  <si>
+    <t>12/20/2013</t>
+  </si>
+  <si>
+    <t>Quiet and Comfortable</t>
+  </si>
+  <si>
+    <t>Helpful and Friendly staff.  Location was convenient to shopping and restaurants.  I did not eat breakfast due to early shift work but I did go into the dinning area and it appeared clean and organized.MoreShow less</t>
+  </si>
+  <si>
+    <t>Helpful and Friendly staff.  Location was convenient to shopping and restaurants.  I did not eat breakfast due to early shift work but I did go into the dinning area and it appeared clean and organized.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d73789-r166683143-Motel_6_Alvin_TX-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>166683143</t>
+  </si>
+  <si>
+    <t>07/07/2013</t>
+  </si>
+  <si>
+    <t>Very nice and a great value</t>
+  </si>
+  <si>
+    <t>This Best Western shows a great value compared to the other newer properties in Alvin.  Anna at the front desk is always smiling, cheerful, and happy to help however she can.  The breakfast is good.  The hotel has a good sized pool.  Lots of restaurant options nearby for dinner.  Beds are super comfortable and the rooms are very clean.  The new carpet in the rooms just tops things off and makes for a great hidden gem in Alvin.</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d73789-r149435478-Motel_6_Alvin_TX-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>149435478</t>
+  </si>
+  <si>
+    <t>01/11/2013</t>
+  </si>
+  <si>
+    <t>Good Stay</t>
+  </si>
+  <si>
+    <t>I was to be a guest speaker early the next morning.  Since Alvin, TX is about a 3 hr drive, I decided to come in the night before.  It was cold &amp; rainy, I was checked in quickly &amp; told the exact location of my room. The motel was within 10 min. to my destination. The family came along, &amp; all wanted to eat something different .  I was able to send my husband out for McD's for the kids, something for me &amp; him from 2 separate places...he was back quickly.  All the staff were kind &amp; helpful.</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d73789-r145627202-Motel_6_Alvin_TX-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>145627202</t>
+  </si>
+  <si>
+    <t>11/17/2012</t>
+  </si>
+  <si>
+    <t>Very Nice Place to Stay</t>
+  </si>
+  <si>
+    <t>The staff was pleasant and friendly. Pillows were NOT flat! The breakfast was the usual fare;dry cereal, make your own waffles,fruit, pastries, and yogurt, and one exception that needs to be mentioned; they have a small refrigerator with Jimmy Dean brand breakfast foods (Breakfast Taco, Sausage, Egg and Cheese Biscuit).  The Breakfast area is small. Two small round tables. If several folks are eating at the same time, you will have to wait or go back to your room. If your room is on the second floor, you will have to walk the one set of stairs that are located in the center (outside) of the building. Not really a bad thing, just that if you are staying in one of the rooms at one end or the other the stairs are not going to be close. Air conditioning was in good working order, plenty of towels and washcloths. We stayed two nights while attending a Motorcycle Rally in Galveston. I would recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>The staff was pleasant and friendly. Pillows were NOT flat! The breakfast was the usual fare;dry cereal, make your own waffles,fruit, pastries, and yogurt, and one exception that needs to be mentioned; they have a small refrigerator with Jimmy Dean brand breakfast foods (Breakfast Taco, Sausage, Egg and Cheese Biscuit).  The Breakfast area is small. Two small round tables. If several folks are eating at the same time, you will have to wait or go back to your room. If your room is on the second floor, you will have to walk the one set of stairs that are located in the center (outside) of the building. Not really a bad thing, just that if you are staying in one of the rooms at one end or the other the stairs are not going to be close. Air conditioning was in good working order, plenty of towels and washcloths. We stayed two nights while attending a Motorcycle Rally in Galveston. I would recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d73789-r122198972-Motel_6_Alvin_TX-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>122198972</t>
+  </si>
+  <si>
+    <t>12/28/2011</t>
+  </si>
+  <si>
+    <t>Night before Christmas Eve and all was fine.</t>
+  </si>
+  <si>
+    <t>Even though we seemed to be the only people staying that night the staff was very pleasant and welcoming.  The room was clean, the heater worked, and the bathroom functioned.  We did not have breakfast as we met friends at Joe's BBQ.</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d73789-r117886871-Motel_6_Alvin_TX-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>117886871</t>
+  </si>
+  <si>
+    <t>09/09/2011</t>
+  </si>
+  <si>
+    <t>WILL STAY THERE ITS GREAT</t>
+  </si>
+  <si>
+    <t>the rooms are wonderful nice and clean the front desk are friendly its a safe place the pool is awsome the tv is nice they have a laundry room the bathroom is very clean we stay there all the time and will keep staying there!! if your in alvin come get a room its only about haour from the beach</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d73789-r117547377-Motel_6_Alvin_TX-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>117547377</t>
+  </si>
+  <si>
+    <t>09/01/2011</t>
+  </si>
+  <si>
+    <t>Clean,Quiet,Good food</t>
+  </si>
+  <si>
+    <t>Rooms are clean,front desk was friendly and helpful.Breakfast was waffles,cereal,danish,egg mcmuffin,fruit,milk,juices. Pool was clean and refreshing.Nice quiet hotel very close to walmart and resturants</t>
+  </si>
+  <si>
+    <t>April 2011</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1295,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1327,2415 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>22074</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>22074</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>22074</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
+        <v>59</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>22074</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>22074</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>71</v>
+      </c>
+      <c r="O6" t="s">
+        <v>77</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>4</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>4</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>22074</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>84</v>
+      </c>
+      <c r="O7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>22074</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" t="s">
+        <v>90</v>
+      </c>
+      <c r="L8" t="s">
+        <v>91</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>92</v>
+      </c>
+      <c r="O8" t="s">
+        <v>77</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>4</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>22074</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" t="s">
+        <v>96</v>
+      </c>
+      <c r="K9" t="s">
+        <v>97</v>
+      </c>
+      <c r="L9" t="s">
+        <v>98</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>99</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="n">
+        <v>3</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>2</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>22074</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>102</v>
+      </c>
+      <c r="J10" t="s">
+        <v>103</v>
+      </c>
+      <c r="K10" t="s">
+        <v>104</v>
+      </c>
+      <c r="L10" t="s">
+        <v>105</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>106</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>3</v>
+      </c>
+      <c r="R10" t="n">
+        <v>4</v>
+      </c>
+      <c r="S10" t="n">
+        <v>4</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>22074</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>107</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>108</v>
+      </c>
+      <c r="J11" t="s">
+        <v>109</v>
+      </c>
+      <c r="K11" t="s">
+        <v>110</v>
+      </c>
+      <c r="L11" t="s">
+        <v>111</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>99</v>
+      </c>
+      <c r="O11" t="s">
+        <v>59</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>22074</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>112</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>113</v>
+      </c>
+      <c r="J12" t="s">
+        <v>114</v>
+      </c>
+      <c r="K12" t="s">
+        <v>115</v>
+      </c>
+      <c r="L12" t="s">
+        <v>116</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>117</v>
+      </c>
+      <c r="O12" t="s">
+        <v>59</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>22074</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>118</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>119</v>
+      </c>
+      <c r="J13" t="s">
+        <v>120</v>
+      </c>
+      <c r="K13" t="s">
+        <v>121</v>
+      </c>
+      <c r="L13" t="s">
+        <v>122</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>117</v>
+      </c>
+      <c r="O13" t="s">
+        <v>77</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>3</v>
+      </c>
+      <c r="R13" t="n">
+        <v>3</v>
+      </c>
+      <c r="S13" t="n">
+        <v>4</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>3</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>22074</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>123</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>124</v>
+      </c>
+      <c r="J14" t="s">
+        <v>125</v>
+      </c>
+      <c r="K14" t="s">
+        <v>126</v>
+      </c>
+      <c r="L14" t="s">
+        <v>127</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>128</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>22074</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>129</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>130</v>
+      </c>
+      <c r="J15" t="s">
+        <v>131</v>
+      </c>
+      <c r="K15" t="s">
+        <v>132</v>
+      </c>
+      <c r="L15" t="s">
+        <v>133</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>128</v>
+      </c>
+      <c r="O15" t="s">
+        <v>59</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>3</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>22074</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>135</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>136</v>
+      </c>
+      <c r="J16" t="s">
+        <v>137</v>
+      </c>
+      <c r="K16" t="s">
+        <v>138</v>
+      </c>
+      <c r="L16" t="s">
+        <v>139</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s">
+        <v>140</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="n">
+        <v>2</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>22074</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>141</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>142</v>
+      </c>
+      <c r="J17" t="s">
+        <v>143</v>
+      </c>
+      <c r="K17" t="s">
+        <v>144</v>
+      </c>
+      <c r="L17" t="s">
+        <v>145</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>146</v>
+      </c>
+      <c r="O17" t="s">
+        <v>77</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
+      <c r="S17" t="n">
+        <v>4</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>22074</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>148</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>149</v>
+      </c>
+      <c r="J18" t="s">
+        <v>150</v>
+      </c>
+      <c r="K18" t="s">
+        <v>151</v>
+      </c>
+      <c r="L18" t="s">
+        <v>152</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>146</v>
+      </c>
+      <c r="O18" t="s">
+        <v>77</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>3</v>
+      </c>
+      <c r="R18" t="n">
+        <v>3</v>
+      </c>
+      <c r="S18" t="n">
+        <v>3</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>22074</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>153</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>154</v>
+      </c>
+      <c r="J19" t="s">
+        <v>155</v>
+      </c>
+      <c r="K19" t="s">
+        <v>156</v>
+      </c>
+      <c r="L19" t="s">
+        <v>157</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="s">
+        <v>146</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>22074</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>158</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>159</v>
+      </c>
+      <c r="J20" t="s">
+        <v>160</v>
+      </c>
+      <c r="K20" t="s">
+        <v>161</v>
+      </c>
+      <c r="L20" t="s">
+        <v>162</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>163</v>
+      </c>
+      <c r="O20" t="s">
+        <v>59</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>164</v>
+      </c>
+      <c r="X20" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>22074</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>167</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>168</v>
+      </c>
+      <c r="J21" t="s">
+        <v>169</v>
+      </c>
+      <c r="K21" t="s">
+        <v>170</v>
+      </c>
+      <c r="L21" t="s">
+        <v>171</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>172</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>173</v>
+      </c>
+      <c r="X21" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>22074</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>176</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>177</v>
+      </c>
+      <c r="J22" t="s">
+        <v>178</v>
+      </c>
+      <c r="K22" t="s">
+        <v>179</v>
+      </c>
+      <c r="L22" t="s">
+        <v>180</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>181</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="n">
+        <v>4</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>173</v>
+      </c>
+      <c r="X22" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22074</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>183</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>184</v>
+      </c>
+      <c r="J23" t="s">
+        <v>185</v>
+      </c>
+      <c r="K23" t="s">
+        <v>186</v>
+      </c>
+      <c r="L23" t="s">
+        <v>187</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="s">
+        <v>188</v>
+      </c>
+      <c r="O23" t="s">
+        <v>59</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>3</v>
+      </c>
+      <c r="R23" t="n">
+        <v>3</v>
+      </c>
+      <c r="S23" t="n">
+        <v>3</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>1</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>189</v>
+      </c>
+      <c r="X23" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>22074</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>192</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>193</v>
+      </c>
+      <c r="J24" t="s">
+        <v>194</v>
+      </c>
+      <c r="K24" t="s">
+        <v>195</v>
+      </c>
+      <c r="L24" t="s">
+        <v>196</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>197</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>198</v>
+      </c>
+      <c r="X24" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>22074</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>201</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>202</v>
+      </c>
+      <c r="J25" t="s">
+        <v>203</v>
+      </c>
+      <c r="K25" t="s">
+        <v>204</v>
+      </c>
+      <c r="L25" t="s">
+        <v>205</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="s">
+        <v>197</v>
+      </c>
+      <c r="O25" t="s">
+        <v>59</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="n">
+        <v>1</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>2</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>206</v>
+      </c>
+      <c r="X25" t="s">
+        <v>207</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>22074</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>209</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>210</v>
+      </c>
+      <c r="J26" t="s">
+        <v>211</v>
+      </c>
+      <c r="K26" t="s">
+        <v>212</v>
+      </c>
+      <c r="L26" t="s">
+        <v>213</v>
+      </c>
+      <c r="M26" t="n">
+        <v>2</v>
+      </c>
+      <c r="N26" t="s">
+        <v>214</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>215</v>
+      </c>
+      <c r="X26" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>22074</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>218</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>219</v>
+      </c>
+      <c r="J27" t="s">
+        <v>220</v>
+      </c>
+      <c r="K27" t="s">
+        <v>221</v>
+      </c>
+      <c r="L27" t="s">
+        <v>222</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>223</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>224</v>
+      </c>
+      <c r="X27" t="s">
+        <v>225</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>22074</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>227</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>228</v>
+      </c>
+      <c r="J28" t="s">
+        <v>229</v>
+      </c>
+      <c r="K28" t="s">
+        <v>230</v>
+      </c>
+      <c r="L28" t="s">
+        <v>231</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>230</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>4</v>
+      </c>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="n">
+        <v>4</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>4</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>232</v>
+      </c>
+      <c r="X28" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>22074</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>235</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>236</v>
+      </c>
+      <c r="J29" t="s">
+        <v>237</v>
+      </c>
+      <c r="K29" t="s">
+        <v>238</v>
+      </c>
+      <c r="L29" t="s">
+        <v>239</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>240</v>
+      </c>
+      <c r="O29" t="s">
+        <v>59</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>4</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>4</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>241</v>
+      </c>
+      <c r="X29" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>22074</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>244</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>245</v>
+      </c>
+      <c r="J30" t="s">
+        <v>246</v>
+      </c>
+      <c r="K30" t="s">
+        <v>247</v>
+      </c>
+      <c r="L30" t="s">
+        <v>248</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>249</v>
+      </c>
+      <c r="O30" t="s">
+        <v>85</v>
+      </c>
+      <c r="P30" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>241</v>
+      </c>
+      <c r="X30" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>22074</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>251</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>252</v>
+      </c>
+      <c r="J31" t="s">
+        <v>253</v>
+      </c>
+      <c r="K31" t="s">
+        <v>254</v>
+      </c>
+      <c r="L31" t="s">
+        <v>255</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>249</v>
+      </c>
+      <c r="O31" t="s">
+        <v>77</v>
+      </c>
+      <c r="P31" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>4</v>
+      </c>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
+      <c r="S31" t="n">
+        <v>4</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>4</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>241</v>
+      </c>
+      <c r="X31" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>22074</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>257</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>258</v>
+      </c>
+      <c r="J32" t="s">
+        <v>259</v>
+      </c>
+      <c r="K32" t="s">
+        <v>260</v>
+      </c>
+      <c r="L32" t="s">
+        <v>261</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>262</v>
+      </c>
+      <c r="O32" t="s">
+        <v>77</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>22074</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>263</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>264</v>
+      </c>
+      <c r="J33" t="s">
+        <v>265</v>
+      </c>
+      <c r="K33" t="s">
+        <v>266</v>
+      </c>
+      <c r="L33" t="s">
+        <v>267</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>268</v>
+      </c>
+      <c r="O33" t="s">
+        <v>77</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>22074</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>269</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>270</v>
+      </c>
+      <c r="J34" t="s">
+        <v>271</v>
+      </c>
+      <c r="K34" t="s">
+        <v>272</v>
+      </c>
+      <c r="L34" t="s">
+        <v>273</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>274</v>
+      </c>
+      <c r="O34" t="s">
+        <v>59</v>
+      </c>
+      <c r="P34" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>4</v>
+      </c>
+      <c r="R34" t="n">
+        <v>3</v>
+      </c>
+      <c r="S34" t="n">
+        <v>4</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>4</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>22074</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>276</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>277</v>
+      </c>
+      <c r="J35" t="s">
+        <v>278</v>
+      </c>
+      <c r="K35" t="s">
+        <v>279</v>
+      </c>
+      <c r="L35" t="s">
+        <v>280</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3</v>
+      </c>
+      <c r="N35" t="s">
+        <v>281</v>
+      </c>
+      <c r="O35" t="s">
+        <v>59</v>
+      </c>
+      <c r="P35" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>4</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
+      <c r="S35" t="n">
+        <v>4</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>22074</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>282</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>283</v>
+      </c>
+      <c r="J36" t="s">
+        <v>284</v>
+      </c>
+      <c r="K36" t="s">
+        <v>285</v>
+      </c>
+      <c r="L36" t="s">
+        <v>286</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>287</v>
+      </c>
+      <c r="O36" t="s">
+        <v>59</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>22074</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>288</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>289</v>
+      </c>
+      <c r="J37" t="s">
+        <v>290</v>
+      </c>
+      <c r="K37" t="s">
+        <v>291</v>
+      </c>
+      <c r="L37" t="s">
+        <v>292</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>293</v>
+      </c>
+      <c r="O37" t="s">
+        <v>77</v>
+      </c>
+      <c r="P37" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="n">
+        <v>4</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>292</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_486.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_486.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="456">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,57 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/12/2018</t>
+    <t>09/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d73789-r420462546-Motel_6_Alvin_TX-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>30163</t>
+  </si>
+  <si>
+    <t>73789</t>
+  </si>
+  <si>
+    <t>420462546</t>
+  </si>
+  <si>
+    <t>09/19/2016</t>
+  </si>
+  <si>
+    <t>They need to address some things...</t>
+  </si>
+  <si>
+    <t>There were quite a few things wrong with this stay.  Fire detector missing from room.  Refrigerator in room and in breakfast area would not keep things cool.  In the breakfast area the fridge has a thermometer in it indicating it was at well over 50 degrees.  One bed had some stains on the sheets.  Didn't have enough towels and they didn't have the keys to the linen closet to get more. Bugs in the room as well.</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d73789-r415777777-Motel_6_Alvin_TX-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>415777777</t>
+  </si>
+  <si>
+    <t>09/07/2016</t>
+  </si>
+  <si>
+    <t>Clean rooms</t>
+  </si>
+  <si>
+    <t>For a budget hotel I was really surprised how clean the rooms were. I liked that you could park right in front of your room. The front desk staff was really friendly. A good variety of breakfast items.</t>
+  </si>
+  <si>
+    <t>August 2016</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d73789-r401840126-Motel_6_Alvin_TX-Alvin_Texas.html</t>
   </si>
   <si>
-    <t>30163</t>
-  </si>
-  <si>
-    <t>73789</t>
-  </si>
-  <si>
     <t>401840126</t>
   </si>
   <si>
@@ -177,9 +216,6 @@
     <t>July 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d73789-r393777066-Motel_6_Alvin_TX-Alvin_Texas.html</t>
   </si>
   <si>
@@ -216,6 +252,39 @@
     <t>I booked this through Expedia and prepaid so we had no choice but to stay. I read reviews beforehand and it seemed ok and reasonably priced for a best Western. When we arrived the hotel looked old and very outdated, nothing like reviews. The guy that checked us in was not very friendly. We were in a room on second floor, no elevator, had to take our luggage up several steps, that were sticking and gross from the outside elements. This hotel is one where doors are all on the outside, very creepy. The room was smelly, took a long time to cool down, and was still not very cool. The bed was hard and we did not sleep good. This hotel needs a huge upgrade.  I would NOT recommend this hotel. Yuk!!!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d73789-r388609525-Motel_6_Alvin_TX-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>388609525</t>
+  </si>
+  <si>
+    <t>07/02/2016</t>
+  </si>
+  <si>
+    <t>Good quality at fair price</t>
+  </si>
+  <si>
+    <t>We were in the Galveston area for two photo shoots, and chose to stay off the island for cost, since we would be in our room very little. The hotel was conveniently located, and the facilities adequate. Service was super!</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d73789-r384493306-Motel_6_Alvin_TX-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>384493306</t>
+  </si>
+  <si>
+    <t>06/20/2016</t>
+  </si>
+  <si>
+    <t>Nice Hotel</t>
+  </si>
+  <si>
+    <t>Very clean hotel room!   A nice little pool.  Friendly staff people.  My family and I will stay there again when we go to Galveston.  Convenient CVS location next door, and very fast pizza delivery service.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d73789-r377785684-Motel_6_Alvin_TX-Alvin_Texas.html</t>
   </si>
   <si>
@@ -279,6 +348,39 @@
     <t>I had stayed in this location twice before when on charity work with no real problem, Seems a new owner nowBooked a months or so ahead for Fri Sat nite stay. On checking in noticed the promo for 25. gift card and inquired. Owner working desk was very rude.  While he was ringing the card I asked what rate showed up. Again he was rude saying I should know and that HE was insulted.Screw that, I am a customer and have a right to know what is being charged He hands me the keys then tries to grab them back saying do I want to stay?  This at 10 at night with all rooms booked for final 4 NCAA everywhere  He followed me outside and I called Best Western. They were NOT helpfulI had to pay considerably more then for a room at super 8 which is no better than a motel 6  Pass on this placeMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d73789-r353752212-Motel_6_Alvin_TX-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>353752212</t>
+  </si>
+  <si>
+    <t>03/07/2016</t>
+  </si>
+  <si>
+    <t>"Left alone to enjoy our stay"</t>
+  </si>
+  <si>
+    <t>Breakfast until ten. The perfect stay, full breakfast, no one rushing to close it or rushing you out of your room. Really cool front desk guy. I WISH ALL BWs HAD THIS CUSTOMER SERVICE! We were very happy at this roadside hotel, as other fancier Best Westerns disappoint. Excellent .stay</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d73789-r343235362-Motel_6_Alvin_TX-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>343235362</t>
+  </si>
+  <si>
+    <t>01/27/2016</t>
+  </si>
+  <si>
+    <t>Awesome Gem</t>
+  </si>
+  <si>
+    <t>Great little place to stay!  We felt very welcome and you could tell that the staff cared about the service they provided.  Every area of the hotel was immaculately kept.  We would definately recommend this hotel to anyone.  As a matter of fact, you could say that we would tell anyone to go out of your way to stay at this hotel.  Thanks to all the staff!</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d73789-r341106645-Motel_6_Alvin_TX-Alvin_Texas.html</t>
   </si>
   <si>
@@ -294,9 +396,6 @@
     <t>This BW location in Alvin, Texas is situated next to natural woods on two sides which make it seem more "detached" from the fast paced world just past the property lines. These seem to block a good amount of sound that is Predominant from the highway to the front of this hotel. Nice touch you could say. Otherwise, a well kept property with spacious rooms, comfortable beds, nice cushy bath linens, good TV of large size, clean rooms and bath, nice breakfast choices, mostly pre packaged items other than waffles, but also some fruit. Folks are all friendly and seek to make your stay enjoyable as possible, a nice size pool with lounging area is tucked in between the office building and rooms building for a privacy effect that helps your relaxation time. Reasonable room prices is also an attractive part of this location. Located on Hwy. 35 by-pass just South of Hwy. 6, you pass it up if you are not looking for it just past the Trees! Go, Stay, it is a good launching point for Houston/Galveston without hanging in the same area overnight, not to mention points south like Lake Jackson, Angleton, Brazoria, etc.MoreShow less</t>
   </si>
   <si>
-    <t>January 2016</t>
-  </si>
-  <si>
     <t>This BW location in Alvin, Texas is situated next to natural woods on two sides which make it seem more "detached" from the fast paced world just past the property lines. These seem to block a good amount of sound that is Predominant from the highway to the front of this hotel. Nice touch you could say. Otherwise, a well kept property with spacious rooms, comfortable beds, nice cushy bath linens, good TV of large size, clean rooms and bath, nice breakfast choices, mostly pre packaged items other than waffles, but also some fruit. Folks are all friendly and seek to make your stay enjoyable as possible, a nice size pool with lounging area is tucked in between the office building and rooms building for a privacy effect that helps your relaxation time. Reasonable room prices is also an attractive part of this location. Located on Hwy. 35 by-pass just South of Hwy. 6, you pass it up if you are not looking for it just past the Trees! Go, Stay, it is a good launching point for Houston/Galveston without hanging in the same area overnight, not to mention points south like Lake Jackson, Angleton, Brazoria, etc.More</t>
   </si>
   <si>
@@ -339,15 +438,48 @@
     <t>November 2015</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d73789-r333001772-Motel_6_Alvin_TX-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>333001772</t>
+  </si>
+  <si>
+    <t>12/15/2015</t>
+  </si>
+  <si>
+    <t>Not a bad place, staff very helpful, but an odd layout of rooms and office areas.</t>
+  </si>
+  <si>
+    <t>The layout of the rooms to the office was poor. It was raining profusely during our stay and the door card stopped working  when I went to the car for luggage, in the rain. I had to go to the office to get a new card. Since we had arrived late the office was not occupied and it took quite a bit of knocking to get the attendants attention. The pool is between the rooms and the office with no covered walkway in between which made for a wet trip to the office. The next morning it was still raining making the trip up for breakfast a wet one also. Would have been ok if not for the rain but still not the greatest facility. The room they put us in was a handicap room which was very roomy at least.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>The layout of the rooms to the office was poor. It was raining profusely during our stay and the door card stopped working  when I went to the car for luggage, in the rain. I had to go to the office to get a new card. Since we had arrived late the office was not occupied and it took quite a bit of knocking to get the attendants attention. The pool is between the rooms and the office with no covered walkway in between which made for a wet trip to the office. The next morning it was still raining making the trip up for breakfast a wet one also. Would have been ok if not for the rain but still not the greatest facility. The room they put us in was a handicap room which was very roomy at least.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d73789-r331143154-Motel_6_Alvin_TX-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>331143154</t>
+  </si>
+  <si>
+    <t>12/06/2015</t>
+  </si>
+  <si>
+    <t>Clean and service is excellent</t>
+  </si>
+  <si>
+    <t>I love Best Western facilities.  I have used them twice now and am sold on the facilities.  I know they have been around for  a long time but seem to be getting better.  I love that you have a choice for breakfast since I am a breakfast person and it is just the right choice to get my day started.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d73789-r330983062-Motel_6_Alvin_TX-Alvin_Texas.html</t>
   </si>
   <si>
     <t>330983062</t>
   </si>
   <si>
-    <t>12/06/2015</t>
-  </si>
-  <si>
     <t>The manager the worst....</t>
   </si>
   <si>
@@ -369,9 +501,6 @@
     <t>The gentlemanwho checked me and my pregnant girlfriend in chooseto run up the side of the car and start yelling at us then he choose to start coursing us out I tryed to apologize for not recognizeing him and he kelt cussing at us then threw us out of the hotel stateing we had to many people visit  and he was calling the police he just kept cussing I recommend if u want to be respected go elsewhere</t>
   </si>
   <si>
-    <t>October 2015</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d73789-r318187245-Motel_6_Alvin_TX-Alvin_Texas.html</t>
   </si>
   <si>
@@ -385,6 +514,39 @@
   </si>
   <si>
     <t>The rooms were clean. The air conditioner was loud and barely worked. The hair dryer didn't work at all. I found mold on my breakfast sandwich. I will stay in a differnt place on my next stay. The only good thing was room was clean.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d73789-r304994212-Motel_6_Alvin_TX-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>304994212</t>
+  </si>
+  <si>
+    <t>08/30/2015</t>
+  </si>
+  <si>
+    <t>Clean, older Hotel!</t>
+  </si>
+  <si>
+    <t>Rooms are old style, on the outside, with parking in front.It was clean, but had a musky smell. Got used to it!Reception lady was not so friendly at first contact, seemed stressed for some reason.At check out, she was much friendlier. I think she may be there 24/7, because we never say anyone else working. That would stress anyone out!Breakfast was ok. Too many people, and not enough tables and chairs. Took it back to room, and didn't get my waffle! BooFor the price, it was worth the stay.</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d73789-r298171416-Motel_6_Alvin_TX-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>298171416</t>
+  </si>
+  <si>
+    <t>08/11/2015</t>
+  </si>
+  <si>
+    <t>Needs upgrade - run down</t>
+  </si>
+  <si>
+    <t>Reservation clerk was nice. On checkout, we could not find anyone at the desk for a long period around 7 am. Broken wall plug. No business center. Meager breakfast offerings. Needs repairs and remodeling. Older hotel that might have been great--in the fifties or sixties.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d73789-r291839312-Motel_6_Alvin_TX-Alvin_Texas.html</t>
@@ -445,6 +607,39 @@
     <t>June 2015</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d73789-r286264143-Motel_6_Alvin_TX-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>286264143</t>
+  </si>
+  <si>
+    <t>07/06/2015</t>
+  </si>
+  <si>
+    <t>Don't judge by price</t>
+  </si>
+  <si>
+    <t>I really enjoyed my stay at Best Western, Alvin, TX. I had a suite room. The room was clean and fresh, the furniture tasteful and in good repair.  If I have advice, it's this: show of breakfast early! There was plenty of food but there weren't enough seats. We just grabbed our food and took it to our rooms.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d73789-r278370433-Motel_6_Alvin_TX-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>278370433</t>
+  </si>
+  <si>
+    <t>06/06/2015</t>
+  </si>
+  <si>
+    <t>Couldn't even stay in our room—and wrestling to get a refund</t>
+  </si>
+  <si>
+    <t>My wife and I booked this hotel online for our first anniversary. We booked it for 3 star hotel prices. It is clearly a 2.0-2.5 star hotel at best.She is pregnant and we were placed in a smoking room, which obviously won't work—if pregnant women can't smoke and can't be around smokers, why would it be okay for them to sleep in air thick with years of smoke and carcinogens?Upon arrival, it was clear that this hotel was not a place where you wanted me out after dark and would not be a place is bring my kids, especially with a ground floor room like ours.Also, the listing was for 2 adults and a bed. They set us up with two queen beds. I thought I was getting a decent hotel near the Gulf but got a nightmare instead. Please never go here, or at least make sure you request non-smoking.MoreShow less</t>
+  </si>
+  <si>
+    <t>My wife and I booked this hotel online for our first anniversary. We booked it for 3 star hotel prices. It is clearly a 2.0-2.5 star hotel at best.She is pregnant and we were placed in a smoking room, which obviously won't work—if pregnant women can't smoke and can't be around smokers, why would it be okay for them to sleep in air thick with years of smoke and carcinogens?Upon arrival, it was clear that this hotel was not a place where you wanted me out after dark and would not be a place is bring my kids, especially with a ground floor room like ours.Also, the listing was for 2 adults and a bed. They set us up with two queen beds. I thought I was getting a decent hotel near the Gulf but got a nightmare instead. Please never go here, or at least make sure you request non-smoking.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d73789-r277135459-Motel_6_Alvin_TX-Alvin_Texas.html</t>
   </si>
   <si>
@@ -496,6 +691,57 @@
     <t>We were placed in smoking room without our consent and the only way that the guy at the front desk "accommodated " was by handing us a can of air freshener. The room was gross, not to mention, hot, humid and full of mosquitoes. We were very disappointed and will never stay there or recommend to anyone.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d73789-r260822017-Motel_6_Alvin_TX-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>260822017</t>
+  </si>
+  <si>
+    <t>03/20/2015</t>
+  </si>
+  <si>
+    <t>business trip</t>
+  </si>
+  <si>
+    <t>Clean and comfortable room at decent price. good tv and channel selection. Breakfast was ok, but nothing special, but typical, but could be better. Bed was comfortable and room was quiet. Manager checked me in and he was friendlyMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>bestwesternalvintx, Webmaster at Motel 6 Alvin, TX, responded to this reviewResponded March 26, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 26, 2015</t>
+  </si>
+  <si>
+    <t>Clean and comfortable room at decent price. good tv and channel selection. Breakfast was ok, but nothing special, but typical, but could be better. Bed was comfortable and room was quiet. Manager checked me in and he was friendlyMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d73789-r257961256-Motel_6_Alvin_TX-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>257961256</t>
+  </si>
+  <si>
+    <t>03/06/2015</t>
+  </si>
+  <si>
+    <t>Top notch hotel</t>
+  </si>
+  <si>
+    <t>Stayed her for 3 nights and enjoyed it. Hotel is clean as can be! Everything in the rooms is new and in excellent condition. Hotel management takes pride is this property and it shows. Grounds are well kept. Rooms have 32 inch Tvs with HD Direct Tv. I wouldn't think twice about staying here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>bestwesternalvintx, Webmaster at Motel 6 Alvin, TX, responded to this reviewResponded March 12, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 12, 2015</t>
+  </si>
+  <si>
+    <t>Stayed her for 3 nights and enjoyed it. Hotel is clean as can be! Everything in the rooms is new and in excellent condition. Hotel management takes pride is this property and it shows. Grounds are well kept. Rooms have 32 inch Tvs with HD Direct Tv. I wouldn't think twice about staying here again.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d73789-r255699015-Motel_6_Alvin_TX-Alvin_Texas.html</t>
   </si>
   <si>
@@ -514,12 +760,6 @@
     <t>February 2015</t>
   </si>
   <si>
-    <t>bestwesternalvintx, Webmaster at Motel 6 Alvin, TX, responded to this reviewResponded March 12, 2015</t>
-  </si>
-  <si>
-    <t>Responded March 12, 2015</t>
-  </si>
-  <si>
     <t>Drove down for a two night stay before a cruise from the port of Galveston. We found the motel to be very nice and the people couldn't have been friendlier. Several times they went out of their way to take care of us. The breakfast was above average, the rates reasonable, and the proximity to the cruise port not bad about 35 miles or forty five minutes. All in all a Best Western that definitely lived up to their reputation. We'll be back!More</t>
   </si>
   <si>
@@ -571,6 +811,57 @@
     <t>We stayed here last Christmas and again Christmas of 2014.  Another Great Stay!  The rooms are large and clean; the staff very friendly - they even knew our names when we checked in.  My sister and her husband stayed here also and they were also impressed.  Rates are great and with our every expanding family, we'll sure to stay here again!Thanks!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d73789-r243153202-Motel_6_Alvin_TX-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>243153202</t>
+  </si>
+  <si>
+    <t>12/05/2014</t>
+  </si>
+  <si>
+    <t>AAAAALLLLVIN!!</t>
+  </si>
+  <si>
+    <t>Nice older remodeled location done very tastefully with the usual expectations of quality from a BW property, did not disappoint! This hotel is tucked away off the main drag in Alvin, TX and is the last developed property with some nice greenery on the end to view. The thoroughfare in front of hotel is a divided highway and you must go by it going one way and turn around to get to it, but it is not complicated. I found this to be a quaint location that made one feel at ease, fenced all around with a privacy fence, tempting pool but too cold of weather to participate. Rooms are comfortable with nice comfy bed and a nice breakfast room set up with good amount of fruit and lighter breakfast fare. Very reasonable rates as it is one of the best priced BW's that I have been in.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>bestwesternalvintx, Webmaster at Motel 6 Alvin, TX, responded to this reviewResponded December 13, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 13, 2014</t>
+  </si>
+  <si>
+    <t>Nice older remodeled location done very tastefully with the usual expectations of quality from a BW property, did not disappoint! This hotel is tucked away off the main drag in Alvin, TX and is the last developed property with some nice greenery on the end to view. The thoroughfare in front of hotel is a divided highway and you must go by it going one way and turn around to get to it, but it is not complicated. I found this to be a quaint location that made one feel at ease, fenced all around with a privacy fence, tempting pool but too cold of weather to participate. Rooms are comfortable with nice comfy bed and a nice breakfast room set up with good amount of fruit and lighter breakfast fare. Very reasonable rates as it is one of the best priced BW's that I have been in.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d73789-r240647623-Motel_6_Alvin_TX-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>240647623</t>
+  </si>
+  <si>
+    <t>11/19/2014</t>
+  </si>
+  <si>
+    <t>Short visit for funeral made better.</t>
+  </si>
+  <si>
+    <t>Although this hotel is right on a busy highway, we didn't notice any of the expected road traffic noise. The room was clean and everything worked. The weather was unseasonably cold and the heat worked great. Room was well insulated against noise and cold.MoreShow less</t>
+  </si>
+  <si>
+    <t>bestwesternalvintx, Webmaster at Motel 6 Alvin, TX, responded to this reviewResponded December 10, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 10, 2014</t>
+  </si>
+  <si>
+    <t>Although this hotel is right on a busy highway, we didn't notice any of the expected road traffic noise. The room was clean and everything worked. The weather was unseasonably cold and the heat worked great. Room was well insulated against noise and cold.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d73789-r239253920-Motel_6_Alvin_TX-Alvin_Texas.html</t>
   </si>
   <si>
@@ -586,9 +877,6 @@
     <t>The front desk staff was vapid and lethargic.  He had no knowledge of the Best Western rewards program and offered none of the associated perks.  I was told that they would not honor the "best available" room upgrade even though  their  best room was going to go vacant.  I cannot think of anything else to add to the review and do no not understand why I must have 200 characters or more.MoreShow less</t>
   </si>
   <si>
-    <t>November 2014</t>
-  </si>
-  <si>
     <t>bestwesternalvintx, Webmaster at Motel 6 Alvin, TX, responded to this reviewResponded November 20, 2014</t>
   </si>
   <si>
@@ -649,6 +937,60 @@
     <t>Room smelled strongly of mildew.  The outside of hotel was a bit rundown.  We arrived about 5 pm on a Saturday, no one in the lobby.  Had to wait about 5 minutes for someone to show up.  Room looked clean, but was VERY hot and humid, the a/c was off.  The room smelled strongly of mildew.  The mosquitos were terrible, and there were even mosquitos in the room.  This hotel is rated 2 1/2 stars on Priceline.  It is NOT comparable with other 2 1/2 stars (Holiday Inn Express and La Quinta) in Alvin.  I do NOT recommend this hotel.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d73789-r227024293-Motel_6_Alvin_TX-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>227024293</t>
+  </si>
+  <si>
+    <t>09/04/2014</t>
+  </si>
+  <si>
+    <t>Nice and clean</t>
+  </si>
+  <si>
+    <t>This hotel was good for the night. Everything in the room looked new, like they had been doing a remodel. The only thing it needs is a new matteress and new covers but maybe they haven't gotten that far yet. Everything was very clean in the room. We didn't eat breakfast there but we did have coffee and it was very good. The hotel staff were very nice and effiecent.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>bestwesternalvintx, Webmaster at Motel 6 Alvin, TX, responded to this reviewResponded September 15, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 15, 2014</t>
+  </si>
+  <si>
+    <t>This hotel was good for the night. Everything in the room looked new, like they had been doing a remodel. The only thing it needs is a new matteress and new covers but maybe they haven't gotten that far yet. Everything was very clean in the room. We didn't eat breakfast there but we did have coffee and it was very good. The hotel staff were very nice and effiecent.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d73789-r217538099-Motel_6_Alvin_TX-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>217538099</t>
+  </si>
+  <si>
+    <t>07/25/2014</t>
+  </si>
+  <si>
+    <t>bEST wESTERN</t>
+  </si>
+  <si>
+    <t>The breakfast could be better . The people are nice. The place is clean. There pool is nice and clean. I found a hair in the tub and no remote control. They dont bother you at check out without a phone call. Very quiet.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>bestwesternalvintx, Webmaster at Motel 6 Alvin, TX, responded to this reviewResponded August 14, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 14, 2014</t>
+  </si>
+  <si>
+    <t>The breakfast could be better . The people are nice. The place is clean. There pool is nice and clean. I found a hair in the tub and no remote control. They dont bother you at check out without a phone call. Very quiet.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d73789-r216381116-Motel_6_Alvin_TX-Alvin_Texas.html</t>
   </si>
   <si>
@@ -664,9 +1006,6 @@
     <t>We were travelling on our way to Galveston and decided to stay in Alvin before heading to the beach the next morning.  Unfortunately, there was a softball tournament and everything was booked, except for the ol' best Western (should have been my first clue). Long story short it was very pricey for the conditions, the room was STANKY, and the sink didn't drain properly. The actual worked fine and the beds slept ok, so all in all it did meet the necessities. I would recommend the holiday Inn express.MoreShow less</t>
   </si>
   <si>
-    <t>July 2014</t>
-  </si>
-  <si>
     <t>bestwesternalvintx, Webmaster at Motel 6 Alvin, TX, responded to this reviewResponded July 30, 2014</t>
   </si>
   <si>
@@ -727,6 +1066,51 @@
     <t>We only stayed one night but the room was very clean, quiet and comfortable. The front desk staff was friendly and professional. There was a problem in the room above us which resulted in water leaking form the light in our bathroom. The staff cleaned up the water and everything was fine. The price was reasonable and I would sty there again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d73789-r196081509-Motel_6_Alvin_TX-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>196081509</t>
+  </si>
+  <si>
+    <t>03/03/2014</t>
+  </si>
+  <si>
+    <t>Excellent Hotel</t>
+  </si>
+  <si>
+    <t>This hotel, may not be much to look at on the outside, but the rooms are excellent. They are clean, and updated with flat screen tvs. The staff was very friendly, and the breakfast was very good! We was in town for business and personal reason, and had family members with us. So we needed an extra room, for xtra nights, the staff accomadated us and kept our family close. The bed was amazingly soft, and comfortable.  We will gladly stay at this Hotel when in this area.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>bestwesternalvintx, Webmaster at Motel 6 Alvin, TX, responded to this reviewResponded April 9, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 9, 2014</t>
+  </si>
+  <si>
+    <t>This hotel, may not be much to look at on the outside, but the rooms are excellent. They are clean, and updated with flat screen tvs. The staff was very friendly, and the breakfast was very good! We was in town for business and personal reason, and had family members with us. So we needed an extra room, for xtra nights, the staff accomadated us and kept our family close. The bed was amazingly soft, and comfortable.  We will gladly stay at this Hotel when in this area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d73789-r195286833-Motel_6_Alvin_TX-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>195286833</t>
+  </si>
+  <si>
+    <t>02/24/2014</t>
+  </si>
+  <si>
+    <t>Nice Room</t>
+  </si>
+  <si>
+    <t>Great room as it was clean and quiet.  Beds were great. Nice TV with plenty of channels.  Internet worked fine.  Felt nice and safe.  No elevator to 2nd floor.  Breakfast is skimpy in a very small space and no coffee once breakfast is overMoreShow less</t>
+  </si>
+  <si>
+    <t>Great room as it was clean and quiet.  Beds were great. Nice TV with plenty of channels.  Internet worked fine.  Felt nice and safe.  No elevator to 2nd floor.  Breakfast is skimpy in a very small space and no coffee once breakfast is overMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d73789-r192315389-Motel_6_Alvin_TX-Alvin_Texas.html</t>
   </si>
   <si>
@@ -745,12 +1129,6 @@
     <t>January 2014</t>
   </si>
   <si>
-    <t>bestwesternalvintx, Webmaster at Motel 6 Alvin, TX, responded to this reviewResponded April 9, 2014</t>
-  </si>
-  <si>
-    <t>Responded April 9, 2014</t>
-  </si>
-  <si>
     <t>This is an older motel that is well kept and updated facilities,  The staff was very friendly and helpful.  Breakfast was sparse but adequate and for the price it was fine.   We would stay here again mainly because the room was clean comfortable and updated.  We were initially concerned when booking because of the price, but we found this to be a very fine motel and worthwhile.More</t>
   </si>
   <si>
@@ -793,6 +1171,42 @@
     <t>Helpful and Friendly staff.  Location was convenient to shopping and restaurants.  I did not eat breakfast due to early shift work but I did go into the dinning area and it appeared clean and organized.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d73789-r186489577-Motel_6_Alvin_TX-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>186489577</t>
+  </si>
+  <si>
+    <t>12/01/2013</t>
+  </si>
+  <si>
+    <t>Wonderful!!!</t>
+  </si>
+  <si>
+    <t>Wonderful hotel in Alvin! Rooms were spotless. Employees were all very nice. Oscar was a doll! He went out of his way to make sure I had decaf coffee! Would have liked it to have a hot breakfast but this is not a BWPLUS hotel even though it is run BETTER than some of the Pluses we have stayed at!!!</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d73789-r177860638-Motel_6_Alvin_TX-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>177860638</t>
+  </si>
+  <si>
+    <t>09/19/2013</t>
+  </si>
+  <si>
+    <t>alvin</t>
+  </si>
+  <si>
+    <t>this hotel IN ALVIN is ok...but the one LOCATE  MABEL TX you have to take care of it ...in the back they are construction some " gas or oil tower" ...you can't  slip i have to left the hotel in the second night  and change for the holiday inn.. Dardane Naranjo 956-240-0992</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d73789-r166683143-Motel_6_Alvin_TX-Alvin_Texas.html</t>
   </si>
   <si>
@@ -850,6 +1264,42 @@
     <t>The staff was pleasant and friendly. Pillows were NOT flat! The breakfast was the usual fare;dry cereal, make your own waffles,fruit, pastries, and yogurt, and one exception that needs to be mentioned; they have a small refrigerator with Jimmy Dean brand breakfast foods (Breakfast Taco, Sausage, Egg and Cheese Biscuit).  The Breakfast area is small. Two small round tables. If several folks are eating at the same time, you will have to wait or go back to your room. If your room is on the second floor, you will have to walk the one set of stairs that are located in the center (outside) of the building. Not really a bad thing, just that if you are staying in one of the rooms at one end or the other the stairs are not going to be close. Air conditioning was in good working order, plenty of towels and washcloths. We stayed two nights while attending a Motorcycle Rally in Galveston. I would recommend this hotel.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d73789-r137658892-Motel_6_Alvin_TX-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>137658892</t>
+  </si>
+  <si>
+    <t>08/19/2012</t>
+  </si>
+  <si>
+    <t>Not Worth It</t>
+  </si>
+  <si>
+    <t>I would avoid this hotel if at all possible. They only had one guy working the front desk which meant I waited 15 mins to check-in. I rented a room that sleeps six people, yet there were only 3 towels in the room. The bedding was old and dusty along with the rest of the room. I wouldn't recommend this motel to anyone.</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d73789-r133371335-Motel_6_Alvin_TX-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>133371335</t>
+  </si>
+  <si>
+    <t>07/03/2012</t>
+  </si>
+  <si>
+    <t>Decent room but..</t>
+  </si>
+  <si>
+    <t>The room was great and the breakfast decent but the parking lot and outside areas were filled with mosquitos. It was a cloudy and drizzling day but that's no excuse for leaving a swarm of mosquitos outside our rooms. We had rush to our rooms to escape them.</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d73789-r122198972-Motel_6_Alvin_TX-Alvin_Texas.html</t>
   </si>
   <si>
@@ -902,6 +1352,42 @@
   </si>
   <si>
     <t>April 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d73789-r115509258-Motel_6_Alvin_TX-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>115509258</t>
+  </si>
+  <si>
+    <t>07/18/2011</t>
+  </si>
+  <si>
+    <t>NASTY NASTY!!!!</t>
+  </si>
+  <si>
+    <t>The hotel staff was very nice an fast checkin us in... The kids went straight swimming but when it was time for bed the hotel had flying roach an bugs over the room... The roaches came out like we had broke up their party.. There was roaches in the bathroom, on the mirror and on the walls an the killing part was they was flying on the doors outside an in the room.. We advised the staff I couldn't stay b/c of the bugs an they allowed us to check out with no charge..... It would be a nice hotel if they didn't have a bug problem....</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d73789-r20351130-Motel_6_Alvin_TX-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>20351130</t>
+  </si>
+  <si>
+    <t>09/24/2008</t>
+  </si>
+  <si>
+    <t>Nice Hotel-Will Stay There Again!</t>
+  </si>
+  <si>
+    <t>My daughter and I stayed here last April to visit family in the Alvin area.  I chose this hotel because of the refrigerator and microwave that were available in all rooms.  My daughter loved the plasma TV and the pool.  We didn't stay in the pool long because it was early April and the water was cold.  I will stay there again!</t>
+  </si>
+  <si>
+    <t>April 2008</t>
   </si>
 </sst>
 </file>
@@ -1436,7 +1922,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -1444,17 +1930,21 @@
       <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="P2" t="s"/>
+      <c r="P2" t="n">
+        <v>2</v>
+      </c>
       <c r="Q2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R2" t="n">
-        <v>5</v>
-      </c>
-      <c r="S2" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="S2" t="n">
+        <v>3</v>
+      </c>
       <c r="T2" t="s"/>
       <c r="U2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -1499,26 +1989,22 @@
         <v>58</v>
       </c>
       <c r="M3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="P3" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q3" t="s"/>
       <c r="R3" t="n">
-        <v>5</v>
-      </c>
-      <c r="S3" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S3" t="s"/>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
         <v>5</v>
@@ -1566,27 +2052,33 @@
         <v>64</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="O4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="P4" t="s"/>
-      <c r="Q4" t="s"/>
-      <c r="R4" t="s"/>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5">
@@ -1623,20 +2115,30 @@
         <v>70</v>
       </c>
       <c r="M5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N5" t="s">
+        <v>65</v>
+      </c>
+      <c r="O5" t="s">
         <v>71</v>
       </c>
-      <c r="O5" t="s">
-        <v>53</v>
-      </c>
-      <c r="P5" t="s"/>
-      <c r="Q5" t="s"/>
-      <c r="R5" t="s"/>
-      <c r="S5" t="s"/>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
       <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
@@ -1680,37 +2182,27 @@
         <v>76</v>
       </c>
       <c r="M6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N6" t="s">
+        <v>65</v>
+      </c>
+      <c r="O6" t="s">
         <v>71</v>
       </c>
-      <c r="O6" t="s">
-        <v>77</v>
-      </c>
-      <c r="P6" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>4</v>
-      </c>
-      <c r="R6" t="n">
-        <v>5</v>
-      </c>
-      <c r="S6" t="n">
-        <v>4</v>
-      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>5</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7">
@@ -1726,42 +2218,50 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
         <v>79</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>80</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>81</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>82</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
         <v>83</v>
       </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="s">
-        <v>84</v>
-      </c>
       <c r="O7" t="s">
-        <v>85</v>
-      </c>
-      <c r="P7" t="s"/>
-      <c r="Q7" t="s"/>
-      <c r="R7" t="s"/>
-      <c r="S7" t="s"/>
+        <v>71</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>4</v>
+      </c>
+      <c r="R7" t="n">
+        <v>4</v>
+      </c>
+      <c r="S7" t="n">
+        <v>3</v>
+      </c>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1769,7 +2269,7 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8">
@@ -1785,40 +2285,40 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>85</v>
+      </c>
+      <c r="J8" t="s">
+        <v>86</v>
+      </c>
+      <c r="K8" t="s">
         <v>87</v>
       </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="L8" t="s">
         <v>88</v>
       </c>
-      <c r="J8" t="s">
-        <v>89</v>
-      </c>
-      <c r="K8" t="s">
-        <v>90</v>
-      </c>
-      <c r="L8" t="s">
-        <v>91</v>
-      </c>
       <c r="M8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="O8" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="P8" t="n">
         <v>4</v>
       </c>
       <c r="Q8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R8" t="n">
         <v>4</v>
@@ -1828,7 +2328,7 @@
       </c>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1836,7 +2336,7 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9">
@@ -1852,31 +2352,31 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>90</v>
+      </c>
+      <c r="J9" t="s">
+        <v>91</v>
+      </c>
+      <c r="K9" t="s">
+        <v>92</v>
+      </c>
+      <c r="L9" t="s">
+        <v>93</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
         <v>94</v>
-      </c>
-      <c r="G9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" t="s">
-        <v>95</v>
-      </c>
-      <c r="J9" t="s">
-        <v>96</v>
-      </c>
-      <c r="K9" t="s">
-        <v>97</v>
-      </c>
-      <c r="L9" t="s">
-        <v>98</v>
-      </c>
-      <c r="M9" t="n">
-        <v>2</v>
-      </c>
-      <c r="N9" t="s">
-        <v>99</v>
       </c>
       <c r="O9" t="s">
         <v>53</v>
@@ -1884,20 +2384,16 @@
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
-      <c r="S9" t="n">
-        <v>3</v>
-      </c>
+      <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>2</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10">
@@ -1913,7 +2409,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -1922,41 +2418,41 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="J10" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="K10" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="L10" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="M10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="P10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S10" t="n">
         <v>4</v>
       </c>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1964,7 +2460,7 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11">
@@ -1980,7 +2476,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -1989,39 +2485,41 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="J11" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="K11" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="L11" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="O11" t="s">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="s"/>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12">
@@ -2037,48 +2535,58 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
+        <v>110</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>111</v>
+      </c>
+      <c r="J12" t="s">
         <v>112</v>
       </c>
-      <c r="G12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="K12" t="s">
         <v>113</v>
       </c>
-      <c r="J12" t="s">
+      <c r="L12" t="s">
         <v>114</v>
       </c>
-      <c r="K12" t="s">
-        <v>115</v>
-      </c>
-      <c r="L12" t="s">
-        <v>116</v>
-      </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="O12" t="s">
-        <v>59</v>
-      </c>
-      <c r="P12" t="s"/>
-      <c r="Q12" t="s"/>
-      <c r="R12" t="s"/>
-      <c r="S12" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>4</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>4</v>
+      </c>
       <c r="T12" t="s"/>
-      <c r="U12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13">
@@ -2094,50 +2602,50 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
+        <v>115</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>116</v>
+      </c>
+      <c r="J13" t="s">
+        <v>117</v>
+      </c>
+      <c r="K13" t="s">
         <v>118</v>
       </c>
-      <c r="G13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="L13" t="s">
         <v>119</v>
       </c>
-      <c r="J13" t="s">
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
         <v>120</v>
       </c>
-      <c r="K13" t="s">
-        <v>121</v>
-      </c>
-      <c r="L13" t="s">
-        <v>122</v>
-      </c>
-      <c r="M13" t="n">
-        <v>3</v>
-      </c>
-      <c r="N13" t="s">
-        <v>117</v>
-      </c>
       <c r="O13" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="P13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -2145,7 +2653,7 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14">
@@ -2161,46 +2669,50 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
+        <v>121</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>122</v>
+      </c>
+      <c r="J14" t="s">
         <v>123</v>
       </c>
-      <c r="G14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" t="s">
-        <v>47</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="K14" t="s">
         <v>124</v>
       </c>
-      <c r="J14" t="s">
+      <c r="L14" t="s">
         <v>125</v>
       </c>
-      <c r="K14" t="s">
-        <v>126</v>
-      </c>
-      <c r="L14" t="s">
-        <v>127</v>
-      </c>
       <c r="M14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="P14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q14" t="n">
         <v>5</v>
       </c>
-      <c r="R14" t="s"/>
-      <c r="S14" t="s"/>
+      <c r="R14" t="n">
+        <v>4</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -2208,7 +2720,7 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15">
@@ -2224,44 +2736,44 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
+        <v>127</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>128</v>
+      </c>
+      <c r="J15" t="s">
         <v>129</v>
       </c>
-      <c r="G15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" t="s">
-        <v>47</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="K15" t="s">
         <v>130</v>
       </c>
-      <c r="J15" t="s">
+      <c r="L15" t="s">
         <v>131</v>
       </c>
-      <c r="K15" t="s">
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
         <v>132</v>
       </c>
-      <c r="L15" t="s">
-        <v>133</v>
-      </c>
-      <c r="M15" t="n">
-        <v>3</v>
-      </c>
-      <c r="N15" t="s">
-        <v>128</v>
-      </c>
       <c r="O15" t="s">
-        <v>59</v>
-      </c>
-      <c r="P15" t="n">
-        <v>2</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
       <c r="R15" t="s"/>
-      <c r="S15" t="s"/>
+      <c r="S15" t="n">
+        <v>3</v>
+      </c>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -2269,7 +2781,7 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16">
@@ -2285,46 +2797,50 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
+        <v>134</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
         <v>135</v>
       </c>
-      <c r="G16" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" t="s">
-        <v>47</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>136</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>137</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>138</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
         <v>139</v>
-      </c>
-      <c r="M16" t="n">
-        <v>2</v>
-      </c>
-      <c r="N16" t="s">
-        <v>140</v>
       </c>
       <c r="O16" t="s">
         <v>53</v>
       </c>
       <c r="P16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q16" t="n">
         <v>3</v>
       </c>
-      <c r="Q16" t="s"/>
-      <c r="R16" t="s"/>
+      <c r="R16" t="n">
+        <v>4</v>
+      </c>
       <c r="S16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -2332,7 +2848,7 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17">
@@ -2348,50 +2864,46 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
+        <v>140</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
         <v>141</v>
       </c>
-      <c r="G17" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" t="s">
-        <v>47</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>142</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>143</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>144</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
         <v>145</v>
       </c>
-      <c r="M17" t="n">
-        <v>4</v>
-      </c>
-      <c r="N17" t="s">
-        <v>146</v>
-      </c>
       <c r="O17" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="P17" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q17" t="s"/>
       <c r="R17" t="n">
-        <v>4</v>
-      </c>
-      <c r="S17" t="n">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -2399,7 +2911,7 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18">
@@ -2415,50 +2927,50 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
+        <v>147</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
         <v>148</v>
       </c>
-      <c r="G18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H18" t="s">
-        <v>47</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>149</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>150</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>151</v>
       </c>
-      <c r="L18" t="s">
-        <v>152</v>
-      </c>
       <c r="M18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="O18" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="P18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2466,7 +2978,7 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19">
@@ -2482,34 +2994,34 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
+        <v>152</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
         <v>153</v>
       </c>
-      <c r="G19" t="s">
-        <v>46</v>
-      </c>
-      <c r="H19" t="s">
-        <v>47</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
+        <v>149</v>
+      </c>
+      <c r="K19" t="s">
         <v>154</v>
       </c>
-      <c r="J19" t="s">
+      <c r="L19" t="s">
         <v>155</v>
       </c>
-      <c r="K19" t="s">
-        <v>156</v>
-      </c>
-      <c r="L19" t="s">
-        <v>157</v>
-      </c>
       <c r="M19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -2523,7 +3035,7 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20">
@@ -2539,34 +3051,34 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
+        <v>156</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>157</v>
+      </c>
+      <c r="J20" t="s">
         <v>158</v>
       </c>
-      <c r="G20" t="s">
-        <v>46</v>
-      </c>
-      <c r="H20" t="s">
-        <v>47</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="K20" t="s">
         <v>159</v>
       </c>
-      <c r="J20" t="s">
+      <c r="L20" t="s">
         <v>160</v>
       </c>
-      <c r="K20" t="s">
-        <v>161</v>
-      </c>
-      <c r="L20" t="s">
-        <v>162</v>
-      </c>
       <c r="M20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="O20" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -2577,14 +3089,10 @@
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="s">
-        <v>164</v>
-      </c>
-      <c r="X20" t="s">
-        <v>165</v>
-      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21">
@@ -2600,7 +3108,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -2609,53 +3117,49 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="J21" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="K21" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="L21" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="M21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="P21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s">
-        <v>173</v>
-      </c>
-      <c r="X21" t="s">
-        <v>174</v>
-      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22">
@@ -2671,7 +3175,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -2680,47 +3184,43 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="J22" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="K22" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="L22" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="O22" t="s">
         <v>53</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
-      <c r="R22" t="s"/>
-      <c r="S22" t="n">
-        <v>4</v>
-      </c>
+      <c r="R22" t="n">
+        <v>4</v>
+      </c>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s">
-        <v>173</v>
-      </c>
-      <c r="X22" t="s">
-        <v>174</v>
-      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="23">
@@ -2736,7 +3236,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -2745,31 +3245,31 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="J23" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="K23" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="L23" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="M23" t="n">
         <v>2</v>
       </c>
       <c r="N23" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="O23" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="P23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R23" t="n">
         <v>3</v>
@@ -2779,19 +3279,15 @@
       </c>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s">
-        <v>189</v>
-      </c>
-      <c r="X23" t="s">
-        <v>190</v>
-      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24">
@@ -2807,7 +3303,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -2816,22 +3312,22 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="J24" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="K24" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="L24" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="M24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="O24" t="s">
         <v>53</v>
@@ -2842,27 +3338,19 @@
       <c r="Q24" t="n">
         <v>5</v>
       </c>
-      <c r="R24" t="n">
-        <v>5</v>
-      </c>
-      <c r="S24" t="n">
-        <v>5</v>
-      </c>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s">
-        <v>198</v>
-      </c>
-      <c r="X24" t="s">
-        <v>199</v>
-      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
     </row>
     <row r="25">
@@ -2878,7 +3366,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -2887,47 +3375,43 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="J25" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="K25" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="L25" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>182</v>
+      </c>
+      <c r="O25" t="s">
+        <v>71</v>
+      </c>
+      <c r="P25" t="n">
         <v>2</v>
       </c>
-      <c r="N25" t="s">
-        <v>197</v>
-      </c>
-      <c r="O25" t="s">
-        <v>59</v>
-      </c>
-      <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
       <c r="R25" t="s"/>
-      <c r="S25" t="n">
-        <v>1</v>
-      </c>
+      <c r="S25" t="s"/>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s">
-        <v>206</v>
-      </c>
-      <c r="X25" t="s">
-        <v>207</v>
-      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
     </row>
     <row r="26">
@@ -2943,7 +3427,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -2952,43 +3436,45 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="J26" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="K26" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="L26" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="M26" t="n">
         <v>2</v>
       </c>
       <c r="N26" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="O26" t="s">
         <v>53</v>
       </c>
-      <c r="P26" t="s"/>
+      <c r="P26" t="n">
+        <v>3</v>
+      </c>
       <c r="Q26" t="s"/>
       <c r="R26" t="s"/>
-      <c r="S26" t="s"/>
+      <c r="S26" t="n">
+        <v>2</v>
+      </c>
       <c r="T26" t="s"/>
-      <c r="U26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="s">
-        <v>215</v>
-      </c>
-      <c r="X26" t="s">
-        <v>216</v>
-      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27">
@@ -3004,7 +3490,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -3013,22 +3499,22 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>219</v>
+        <v>196</v>
       </c>
       <c r="J27" t="s">
-        <v>220</v>
+        <v>197</v>
       </c>
       <c r="K27" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
       <c r="L27" t="s">
-        <v>222</v>
+        <v>199</v>
       </c>
       <c r="M27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>223</v>
+        <v>182</v>
       </c>
       <c r="O27" t="s">
         <v>53</v>
@@ -3036,9 +3522,11 @@
       <c r="P27" t="n">
         <v>5</v>
       </c>
-      <c r="Q27" t="s"/>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
       <c r="R27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S27" t="n">
         <v>5</v>
@@ -3050,14 +3538,10 @@
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s">
-        <v>224</v>
-      </c>
-      <c r="X27" t="s">
-        <v>225</v>
-      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>226</v>
+        <v>199</v>
       </c>
     </row>
     <row r="28">
@@ -3073,7 +3557,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>227</v>
+        <v>200</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3082,53 +3566,39 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>228</v>
+        <v>201</v>
       </c>
       <c r="J28" t="s">
-        <v>229</v>
+        <v>202</v>
       </c>
       <c r="K28" t="s">
-        <v>230</v>
+        <v>203</v>
       </c>
       <c r="L28" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="M28" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>230</v>
+        <v>194</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
-      </c>
-      <c r="P28" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>4</v>
-      </c>
-      <c r="R28" t="n">
-        <v>4</v>
-      </c>
-      <c r="S28" t="n">
-        <v>4</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
       <c r="T28" t="s"/>
-      <c r="U28" t="n">
-        <v>4</v>
-      </c>
+      <c r="U28" t="s"/>
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s">
-        <v>232</v>
-      </c>
-      <c r="X28" t="s">
-        <v>233</v>
-      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
     </row>
     <row r="29">
@@ -3144,7 +3614,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>235</v>
+        <v>206</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3153,34 +3623,34 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>236</v>
+        <v>207</v>
       </c>
       <c r="J29" t="s">
-        <v>237</v>
+        <v>208</v>
       </c>
       <c r="K29" t="s">
-        <v>238</v>
+        <v>209</v>
       </c>
       <c r="L29" t="s">
-        <v>239</v>
+        <v>210</v>
       </c>
       <c r="M29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>240</v>
+        <v>211</v>
       </c>
       <c r="O29" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="P29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q29" t="n">
         <v>4</v>
       </c>
       <c r="R29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S29" t="n">
         <v>4</v>
@@ -3192,14 +3662,10 @@
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s">
-        <v>241</v>
-      </c>
-      <c r="X29" t="s">
-        <v>242</v>
-      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>243</v>
+        <v>212</v>
       </c>
     </row>
     <row r="30">
@@ -3215,7 +3681,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>244</v>
+        <v>213</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -3224,53 +3690,49 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>245</v>
+        <v>214</v>
       </c>
       <c r="J30" t="s">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="K30" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="L30" t="s">
-        <v>248</v>
+        <v>217</v>
       </c>
       <c r="M30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N30" t="s">
-        <v>249</v>
+        <v>211</v>
       </c>
       <c r="O30" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="P30" t="n">
         <v>4</v>
       </c>
       <c r="Q30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="s">
-        <v>241</v>
-      </c>
-      <c r="X30" t="s">
-        <v>242</v>
-      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>250</v>
+        <v>217</v>
       </c>
     </row>
     <row r="31">
@@ -3286,7 +3748,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>251</v>
+        <v>218</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -3295,53 +3757,39 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>252</v>
+        <v>219</v>
       </c>
       <c r="J31" t="s">
-        <v>253</v>
+        <v>220</v>
       </c>
       <c r="K31" t="s">
-        <v>254</v>
+        <v>221</v>
       </c>
       <c r="L31" t="s">
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="M31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N31" t="s">
-        <v>249</v>
+        <v>211</v>
       </c>
       <c r="O31" t="s">
-        <v>77</v>
-      </c>
-      <c r="P31" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>4</v>
-      </c>
-      <c r="R31" t="n">
-        <v>4</v>
-      </c>
-      <c r="S31" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
       <c r="T31" t="s"/>
-      <c r="U31" t="n">
-        <v>4</v>
-      </c>
+      <c r="U31" t="s"/>
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="s">
-        <v>241</v>
-      </c>
-      <c r="X31" t="s">
-        <v>242</v>
-      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>256</v>
+        <v>222</v>
       </c>
     </row>
     <row r="32">
@@ -3357,7 +3805,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>257</v>
+        <v>223</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -3366,28 +3814,28 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>258</v>
+        <v>224</v>
       </c>
       <c r="J32" t="s">
-        <v>259</v>
+        <v>225</v>
       </c>
       <c r="K32" t="s">
-        <v>260</v>
+        <v>226</v>
       </c>
       <c r="L32" t="s">
-        <v>261</v>
+        <v>227</v>
       </c>
       <c r="M32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>262</v>
+        <v>228</v>
       </c>
       <c r="O32" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="P32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q32" t="n">
         <v>5</v>
@@ -3405,10 +3853,14 @@
       <c r="V32" t="n">
         <v>0</v>
       </c>
-      <c r="W32" t="s"/>
-      <c r="X32" t="s"/>
+      <c r="W32" t="s">
+        <v>229</v>
+      </c>
+      <c r="X32" t="s">
+        <v>230</v>
+      </c>
       <c r="Y32" t="s">
-        <v>261</v>
+        <v>231</v>
       </c>
     </row>
     <row r="33">
@@ -3424,7 +3876,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>263</v>
+        <v>232</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -3433,49 +3885,43 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="J33" t="s">
-        <v>265</v>
+        <v>234</v>
       </c>
       <c r="K33" t="s">
-        <v>266</v>
+        <v>235</v>
       </c>
       <c r="L33" t="s">
-        <v>267</v>
+        <v>236</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>268</v>
+        <v>228</v>
       </c>
       <c r="O33" t="s">
-        <v>77</v>
-      </c>
-      <c r="P33" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>5</v>
-      </c>
-      <c r="R33" t="n">
-        <v>5</v>
-      </c>
-      <c r="S33" t="n">
-        <v>5</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
       <c r="T33" t="s"/>
-      <c r="U33" t="n">
-        <v>5</v>
-      </c>
+      <c r="U33" t="s"/>
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="s"/>
-      <c r="X33" t="s"/>
+      <c r="W33" t="s">
+        <v>237</v>
+      </c>
+      <c r="X33" t="s">
+        <v>238</v>
+      </c>
       <c r="Y33" t="s">
-        <v>267</v>
+        <v>239</v>
       </c>
     </row>
     <row r="34">
@@ -3491,7 +3937,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>269</v>
+        <v>240</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -3500,49 +3946,43 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>270</v>
+        <v>241</v>
       </c>
       <c r="J34" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
       <c r="K34" t="s">
-        <v>272</v>
+        <v>243</v>
       </c>
       <c r="L34" t="s">
-        <v>273</v>
+        <v>244</v>
       </c>
       <c r="M34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>274</v>
+        <v>245</v>
       </c>
       <c r="O34" t="s">
-        <v>59</v>
-      </c>
-      <c r="P34" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>4</v>
-      </c>
-      <c r="R34" t="n">
-        <v>3</v>
-      </c>
-      <c r="S34" t="n">
-        <v>4</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
       <c r="T34" t="s"/>
-      <c r="U34" t="n">
-        <v>4</v>
-      </c>
+      <c r="U34" t="s"/>
       <c r="V34" t="n">
         <v>0</v>
       </c>
-      <c r="W34" t="s"/>
-      <c r="X34" t="s"/>
+      <c r="W34" t="s">
+        <v>237</v>
+      </c>
+      <c r="X34" t="s">
+        <v>238</v>
+      </c>
       <c r="Y34" t="s">
-        <v>275</v>
+        <v>246</v>
       </c>
     </row>
     <row r="35">
@@ -3558,7 +3998,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>276</v>
+        <v>247</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -3567,37 +4007,37 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>277</v>
+        <v>248</v>
       </c>
       <c r="J35" t="s">
-        <v>278</v>
+        <v>249</v>
       </c>
       <c r="K35" t="s">
-        <v>279</v>
+        <v>250</v>
       </c>
       <c r="L35" t="s">
-        <v>280</v>
+        <v>251</v>
       </c>
       <c r="M35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>281</v>
+        <v>252</v>
       </c>
       <c r="O35" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="P35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
@@ -3606,10 +4046,14 @@
       <c r="V35" t="n">
         <v>0</v>
       </c>
-      <c r="W35" t="s"/>
-      <c r="X35" t="s"/>
+      <c r="W35" t="s">
+        <v>253</v>
+      </c>
+      <c r="X35" t="s">
+        <v>254</v>
+      </c>
       <c r="Y35" t="s">
-        <v>280</v>
+        <v>255</v>
       </c>
     </row>
     <row r="36">
@@ -3625,7 +4069,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>282</v>
+        <v>256</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -3634,45 +4078,47 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>283</v>
+        <v>257</v>
       </c>
       <c r="J36" t="s">
-        <v>284</v>
+        <v>258</v>
       </c>
       <c r="K36" t="s">
-        <v>285</v>
+        <v>259</v>
       </c>
       <c r="L36" t="s">
-        <v>286</v>
+        <v>260</v>
       </c>
       <c r="M36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="O36" t="s">
-        <v>59</v>
-      </c>
-      <c r="P36" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
       <c r="R36" t="s"/>
       <c r="S36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
-      <c r="W36" t="s"/>
-      <c r="X36" t="s"/>
+      <c r="W36" t="s">
+        <v>253</v>
+      </c>
+      <c r="X36" t="s">
+        <v>254</v>
+      </c>
       <c r="Y36" t="s">
-        <v>286</v>
+        <v>262</v>
       </c>
     </row>
     <row r="37">
@@ -3688,7 +4134,7 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>288</v>
+        <v>263</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -3697,45 +4143,1811 @@
         <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>289</v>
+        <v>264</v>
       </c>
       <c r="J37" t="s">
-        <v>290</v>
+        <v>265</v>
       </c>
       <c r="K37" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="L37" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="M37" t="n">
         <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>293</v>
+        <v>268</v>
       </c>
       <c r="O37" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="P37" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q37" t="s"/>
-      <c r="R37" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>4</v>
+      </c>
+      <c r="R37" t="n">
+        <v>4</v>
+      </c>
       <c r="S37" t="n">
         <v>4</v>
       </c>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
-      <c r="W37" t="s"/>
-      <c r="X37" t="s"/>
+      <c r="W37" t="s">
+        <v>269</v>
+      </c>
+      <c r="X37" t="s">
+        <v>270</v>
+      </c>
       <c r="Y37" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>22074</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>272</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>273</v>
+      </c>
+      <c r="J38" t="s">
+        <v>274</v>
+      </c>
+      <c r="K38" t="s">
+        <v>275</v>
+      </c>
+      <c r="L38" t="s">
+        <v>276</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>268</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>4</v>
+      </c>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="n">
+        <v>4</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>4</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>277</v>
+      </c>
+      <c r="X38" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>22074</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>280</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>281</v>
+      </c>
+      <c r="J39" t="s">
+        <v>282</v>
+      </c>
+      <c r="K39" t="s">
+        <v>283</v>
+      </c>
+      <c r="L39" t="s">
+        <v>284</v>
+      </c>
+      <c r="M39" t="n">
+        <v>2</v>
+      </c>
+      <c r="N39" t="s">
+        <v>268</v>
+      </c>
+      <c r="O39" t="s">
+        <v>71</v>
+      </c>
+      <c r="P39" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>3</v>
+      </c>
+      <c r="R39" t="n">
+        <v>3</v>
+      </c>
+      <c r="S39" t="n">
+        <v>3</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>1</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>285</v>
+      </c>
+      <c r="X39" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>22074</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>288</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>289</v>
+      </c>
+      <c r="J40" t="s">
+        <v>290</v>
+      </c>
+      <c r="K40" t="s">
+        <v>291</v>
+      </c>
+      <c r="L40" t="s">
         <v>292</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>293</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>294</v>
+      </c>
+      <c r="X40" t="s">
+        <v>295</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>22074</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>297</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>298</v>
+      </c>
+      <c r="J41" t="s">
+        <v>299</v>
+      </c>
+      <c r="K41" t="s">
+        <v>300</v>
+      </c>
+      <c r="L41" t="s">
+        <v>301</v>
+      </c>
+      <c r="M41" t="n">
+        <v>2</v>
+      </c>
+      <c r="N41" t="s">
+        <v>293</v>
+      </c>
+      <c r="O41" t="s">
+        <v>71</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="n">
+        <v>1</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>2</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>302</v>
+      </c>
+      <c r="X41" t="s">
+        <v>303</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>22074</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>305</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>306</v>
+      </c>
+      <c r="J42" t="s">
+        <v>307</v>
+      </c>
+      <c r="K42" t="s">
+        <v>308</v>
+      </c>
+      <c r="L42" t="s">
+        <v>309</v>
+      </c>
+      <c r="M42" t="n">
+        <v>3</v>
+      </c>
+      <c r="N42" t="s">
+        <v>310</v>
+      </c>
+      <c r="O42" t="s">
+        <v>71</v>
+      </c>
+      <c r="P42" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>4</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>311</v>
+      </c>
+      <c r="X42" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>22074</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>314</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>315</v>
+      </c>
+      <c r="J43" t="s">
+        <v>316</v>
+      </c>
+      <c r="K43" t="s">
+        <v>317</v>
+      </c>
+      <c r="L43" t="s">
+        <v>318</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>319</v>
+      </c>
+      <c r="O43" t="s">
+        <v>100</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>4</v>
+      </c>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>4</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>4</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>320</v>
+      </c>
+      <c r="X43" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>22074</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>323</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>324</v>
+      </c>
+      <c r="J44" t="s">
+        <v>325</v>
+      </c>
+      <c r="K44" t="s">
+        <v>326</v>
+      </c>
+      <c r="L44" t="s">
+        <v>327</v>
+      </c>
+      <c r="M44" t="n">
+        <v>2</v>
+      </c>
+      <c r="N44" t="s">
+        <v>319</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>328</v>
+      </c>
+      <c r="X44" t="s">
+        <v>329</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>22074</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>331</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>332</v>
+      </c>
+      <c r="J45" t="s">
+        <v>333</v>
+      </c>
+      <c r="K45" t="s">
+        <v>334</v>
+      </c>
+      <c r="L45" t="s">
+        <v>335</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>336</v>
+      </c>
+      <c r="O45" t="s">
+        <v>53</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>337</v>
+      </c>
+      <c r="X45" t="s">
+        <v>338</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>22074</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>340</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>341</v>
+      </c>
+      <c r="J46" t="s">
+        <v>342</v>
+      </c>
+      <c r="K46" t="s">
+        <v>343</v>
+      </c>
+      <c r="L46" t="s">
+        <v>344</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>343</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>4</v>
+      </c>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="n">
+        <v>4</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>4</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>345</v>
+      </c>
+      <c r="X46" t="s">
+        <v>346</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>22074</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>348</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>349</v>
+      </c>
+      <c r="J47" t="s">
+        <v>350</v>
+      </c>
+      <c r="K47" t="s">
+        <v>351</v>
+      </c>
+      <c r="L47" t="s">
+        <v>352</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>353</v>
+      </c>
+      <c r="O47" t="s">
+        <v>100</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>354</v>
+      </c>
+      <c r="X47" t="s">
+        <v>355</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>22074</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>357</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>358</v>
+      </c>
+      <c r="J48" t="s">
+        <v>359</v>
+      </c>
+      <c r="K48" t="s">
+        <v>360</v>
+      </c>
+      <c r="L48" t="s">
+        <v>361</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>353</v>
+      </c>
+      <c r="O48" t="s">
+        <v>71</v>
+      </c>
+      <c r="P48" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>3</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>3</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>354</v>
+      </c>
+      <c r="X48" t="s">
+        <v>355</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>22074</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>363</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>364</v>
+      </c>
+      <c r="J49" t="s">
+        <v>365</v>
+      </c>
+      <c r="K49" t="s">
+        <v>366</v>
+      </c>
+      <c r="L49" t="s">
+        <v>367</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>368</v>
+      </c>
+      <c r="O49" t="s">
+        <v>71</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>4</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>4</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>354</v>
+      </c>
+      <c r="X49" t="s">
+        <v>355</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>22074</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>370</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>371</v>
+      </c>
+      <c r="J50" t="s">
+        <v>372</v>
+      </c>
+      <c r="K50" t="s">
+        <v>373</v>
+      </c>
+      <c r="L50" t="s">
+        <v>374</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>375</v>
+      </c>
+      <c r="O50" t="s">
+        <v>108</v>
+      </c>
+      <c r="P50" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>354</v>
+      </c>
+      <c r="X50" t="s">
+        <v>355</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>22074</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>377</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>378</v>
+      </c>
+      <c r="J51" t="s">
+        <v>379</v>
+      </c>
+      <c r="K51" t="s">
+        <v>380</v>
+      </c>
+      <c r="L51" t="s">
+        <v>381</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>375</v>
+      </c>
+      <c r="O51" t="s">
+        <v>100</v>
+      </c>
+      <c r="P51" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>4</v>
+      </c>
+      <c r="R51" t="n">
+        <v>4</v>
+      </c>
+      <c r="S51" t="n">
+        <v>4</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>4</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>354</v>
+      </c>
+      <c r="X51" t="s">
+        <v>355</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>22074</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>383</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>384</v>
+      </c>
+      <c r="J52" t="s">
+        <v>385</v>
+      </c>
+      <c r="K52" t="s">
+        <v>386</v>
+      </c>
+      <c r="L52" t="s">
+        <v>387</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>388</v>
+      </c>
+      <c r="O52" t="s">
+        <v>71</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>22074</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>389</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>390</v>
+      </c>
+      <c r="J53" t="s">
+        <v>391</v>
+      </c>
+      <c r="K53" t="s">
+        <v>392</v>
+      </c>
+      <c r="L53" t="s">
+        <v>393</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>394</v>
+      </c>
+      <c r="O53" t="s">
+        <v>100</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>4</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>22074</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>395</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>396</v>
+      </c>
+      <c r="J54" t="s">
+        <v>397</v>
+      </c>
+      <c r="K54" t="s">
+        <v>398</v>
+      </c>
+      <c r="L54" t="s">
+        <v>399</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>400</v>
+      </c>
+      <c r="O54" t="s">
+        <v>100</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>22074</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>401</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>402</v>
+      </c>
+      <c r="J55" t="s">
+        <v>403</v>
+      </c>
+      <c r="K55" t="s">
+        <v>404</v>
+      </c>
+      <c r="L55" t="s">
+        <v>405</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>406</v>
+      </c>
+      <c r="O55" t="s">
+        <v>100</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>22074</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>407</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>408</v>
+      </c>
+      <c r="J56" t="s">
+        <v>409</v>
+      </c>
+      <c r="K56" t="s">
+        <v>410</v>
+      </c>
+      <c r="L56" t="s">
+        <v>411</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>412</v>
+      </c>
+      <c r="O56" t="s">
+        <v>71</v>
+      </c>
+      <c r="P56" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>4</v>
+      </c>
+      <c r="R56" t="n">
+        <v>3</v>
+      </c>
+      <c r="S56" t="n">
+        <v>4</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>4</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>22074</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>414</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>415</v>
+      </c>
+      <c r="J57" t="s">
+        <v>416</v>
+      </c>
+      <c r="K57" t="s">
+        <v>417</v>
+      </c>
+      <c r="L57" t="s">
+        <v>418</v>
+      </c>
+      <c r="M57" t="n">
+        <v>2</v>
+      </c>
+      <c r="N57" t="s">
+        <v>419</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>2</v>
+      </c>
+      <c r="R57" t="s"/>
+      <c r="S57" t="n">
+        <v>1</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>2</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>22074</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>420</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>421</v>
+      </c>
+      <c r="J58" t="s">
+        <v>422</v>
+      </c>
+      <c r="K58" t="s">
+        <v>423</v>
+      </c>
+      <c r="L58" t="s">
+        <v>424</v>
+      </c>
+      <c r="M58" t="n">
+        <v>3</v>
+      </c>
+      <c r="N58" t="s">
+        <v>425</v>
+      </c>
+      <c r="O58" t="s">
+        <v>53</v>
+      </c>
+      <c r="P58" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>3</v>
+      </c>
+      <c r="R58" t="n">
+        <v>3</v>
+      </c>
+      <c r="S58" t="n">
+        <v>3</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>3</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>22074</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>426</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>427</v>
+      </c>
+      <c r="J59" t="s">
+        <v>428</v>
+      </c>
+      <c r="K59" t="s">
+        <v>429</v>
+      </c>
+      <c r="L59" t="s">
+        <v>430</v>
+      </c>
+      <c r="M59" t="n">
+        <v>3</v>
+      </c>
+      <c r="N59" t="s">
+        <v>431</v>
+      </c>
+      <c r="O59" t="s">
+        <v>71</v>
+      </c>
+      <c r="P59" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>4</v>
+      </c>
+      <c r="R59" t="n">
+        <v>4</v>
+      </c>
+      <c r="S59" t="n">
+        <v>4</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>22074</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>432</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>433</v>
+      </c>
+      <c r="J60" t="s">
+        <v>434</v>
+      </c>
+      <c r="K60" t="s">
+        <v>435</v>
+      </c>
+      <c r="L60" t="s">
+        <v>436</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>437</v>
+      </c>
+      <c r="O60" t="s">
+        <v>71</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>22074</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>438</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>439</v>
+      </c>
+      <c r="J61" t="s">
+        <v>440</v>
+      </c>
+      <c r="K61" t="s">
+        <v>441</v>
+      </c>
+      <c r="L61" t="s">
+        <v>442</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>443</v>
+      </c>
+      <c r="O61" t="s">
+        <v>100</v>
+      </c>
+      <c r="P61" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="n">
+        <v>4</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>22074</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>444</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>445</v>
+      </c>
+      <c r="J62" t="s">
+        <v>446</v>
+      </c>
+      <c r="K62" t="s">
+        <v>447</v>
+      </c>
+      <c r="L62" t="s">
+        <v>448</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1</v>
+      </c>
+      <c r="N62" t="s">
+        <v>449</v>
+      </c>
+      <c r="O62" t="s">
+        <v>53</v>
+      </c>
+      <c r="P62" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="n">
+        <v>1</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>4</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>22074</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>450</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>451</v>
+      </c>
+      <c r="J63" t="s">
+        <v>452</v>
+      </c>
+      <c r="K63" t="s">
+        <v>453</v>
+      </c>
+      <c r="L63" t="s">
+        <v>454</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>455</v>
+      </c>
+      <c r="O63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>454</v>
       </c>
     </row>
   </sheetData>
